--- a/lab1/prysievok_fb_23_kushnaryov_fb_23_cp1/aboba.xlsx
+++ b/lab1/prysievok_fb_23_kushnaryov_fb_23_cp1/aboba.xlsx
@@ -618,106 +618,106 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.09801764244214929</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.01842394272374288</v>
+        <v>0.01902984208212209</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.0003013978324694818</v>
+        <v>0.0003265768380620811</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.00598261361264644</v>
+        <v>0.006456633816731969</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.0009175296846858561</v>
+        <v>0.0008823566863236961</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.001101569069114124</v>
+        <v>0.00112654028542516</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.01562601063294211</v>
+        <v>0.01616255736629263</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.0002747254579146604</v>
+        <v>0.0002876273069170622</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.001342954058835257</v>
+        <v>0.00134375882450315</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>0.01482050492138651</v>
+        <v>0.01554685516242329</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>0.007246884166544974</v>
+        <v>0.007341986620836052</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>0.004242241172944344</v>
+        <v>0.00436684166491269</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>0.003924839915741969</v>
+        <v>0.004037268709070222</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>0.007256219497639161</v>
+        <v>0.007407901212004545</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>0.002397846472478444</v>
+        <v>0.00247029910992831</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0.01725569271824171</v>
+        <v>0.01771005219986203</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001466980600515177</v>
+        <v>0.000140817535678145</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>0.0009562046277903472</v>
+        <v>0.0009572596308333477</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>0.002807267421894952</v>
+        <v>0.002925709012546992</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.005881258589338119</v>
+        <v>0.006052157916379851</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>0.004821031700783968</v>
+        <v>0.004927115689844884</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>8.935245475865168e-05</v>
+        <v>8.688741563119588e-05</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.00332737872571397</v>
+        <v>0.003421566505200886</v>
       </c>
       <c r="Y2" s="2" t="n">
-        <v>0.0003934175246836156</v>
+        <v>0.0003760127814384511</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>0.0001386963476850713</v>
+        <v>0.000137821417897759</v>
       </c>
       <c r="AA2" s="2" t="n">
-        <v>0.0001373627289573302</v>
+        <v>0.0001288330645566008</v>
       </c>
       <c r="AB2" s="2" t="n">
-        <v>2.400513709933926e-05</v>
+        <v>2.696506002347458e-05</v>
       </c>
       <c r="AC2" s="2" t="n">
-        <v>2.66723745548214e-05</v>
+        <v>2.247088335289549e-05</v>
       </c>
       <c r="AD2" s="2" t="n">
-        <v>0.004054200932332852</v>
+        <v>0.004188572656979719</v>
       </c>
       <c r="AE2" s="2" t="n">
-        <v>0.008665854492861473</v>
+        <v>0.008841543569919277</v>
       </c>
       <c r="AF2" s="2" t="n">
-        <v>2.000428091611605e-05</v>
+        <v>1.048641223135123e-05</v>
       </c>
       <c r="AG2" s="2" t="n">
-        <v>0.002076444359092846</v>
+        <v>0.002127243624074106</v>
       </c>
       <c r="AH2" s="2" t="n">
-        <v>0.008973920418969659</v>
+        <v>0.009301447649208539</v>
       </c>
       <c r="AI2" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
     </row>
     <row r="3">
@@ -727,103 +727,103 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.004664998309638263</v>
+        <v>0.00446121937499485</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1.867066218837498e-05</v>
+        <v>0.0001528020067996893</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.0005321138723686869</v>
+        <v>0.0005977254971870199</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.004939723767552923</v>
+        <v>0.005559296541506343</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.000857516841937508</v>
+        <v>0.000972240219735278</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.003556761146885433</v>
+        <v>0.003999817236815396</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0001266937791354016</v>
+        <v>0.0002127243624074106</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.0008641849355762133</v>
+        <v>0.000970742160845085</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.004380937520629415</v>
+        <v>0.00493011180762527</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>0.000325402969568821</v>
+        <v>0.0004209545481442421</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>0</v>
+        <v>4.943594337637007e-05</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0.00681879255494009</v>
+        <v>0.00768204598890987</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>0.007036172407561885</v>
+        <v>0.007930723764681914</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>0.002501868733242247</v>
+        <v>0.002849308009147147</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>0.00909928057937732</v>
+        <v>0.01022874610223803</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2.400513709933926e-05</v>
+        <v>9.73738278625471e-05</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.001288275690997873</v>
+        <v>0.001447124887926469</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>0.006393368180790689</v>
+        <v>0.007196674908487327</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>0.003085993735992836</v>
+        <v>0.003485983037479186</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.004854372168977494</v>
+        <v>0.005478401361435919</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.001284274834814e-05</v>
+        <v>9.437771008216103e-05</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.0001453644413237766</v>
+        <v>0.0001632884190310405</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.0004294252303326245</v>
+        <v>0.0004988536104342798</v>
       </c>
       <c r="Y3" s="2" t="n">
-        <v>0.0006654757451427939</v>
+        <v>0.0007550216806572883</v>
       </c>
       <c r="Z3" s="2" t="n">
-        <v>0.00218180023858439</v>
+        <v>0.002450824344355801</v>
       </c>
       <c r="AA3" s="2" t="n">
-        <v>0.0007548281999014456</v>
+        <v>0.0008479013318492564</v>
       </c>
       <c r="AB3" s="2" t="n">
-        <v>0.0002573884144540265</v>
+        <v>0.0002891253658072552</v>
       </c>
       <c r="AC3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD3" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>2.546700113328155e-05</v>
       </c>
       <c r="AE3" s="2" t="n">
-        <v>0</v>
+        <v>7.789906229003768e-05</v>
       </c>
       <c r="AF3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG3" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>1.947476557250942e-05</v>
       </c>
       <c r="AH3" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>5.09340022665631e-05</v>
       </c>
       <c r="AI3" s="2" t="n">
         <v>0</v>
@@ -836,73 +836,73 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.005205113894373396</v>
+        <v>0.00534507412020874</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.0005214449225467583</v>
+        <v>0.0006606439705751273</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.066894982192856e-05</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>1.048641223135123e-05</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>8.988353341158195e-06</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.533875582708033e-05</v>
+        <v>2.996117780386065e-05</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0008308444673826866</v>
+        <v>0.0009872208086372084</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>9.335331094187489e-06</v>
+        <v>1.048641223135123e-05</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>8.801883603091062e-05</v>
+        <v>0.0001003699456429332</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0.0004254243741494013</v>
+        <v>0.000506343904885245</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>9.335331094187489e-06</v>
+        <v>8.688741563119588e-05</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.348253001173729e-05</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.200684946578567e-05</v>
+        <v>5.09340022665631e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>4.934389292641958e-05</v>
+        <v>8.389129785080981e-05</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>9.335331094187489e-06</v>
+        <v>2.247088335289549e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.002983305093956773</v>
+        <v>0.003408083975189149</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>6.668093638705349e-06</v>
+        <v>7.490294450965162e-06</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>5.33447491096428e-05</v>
+        <v>6.441653227830039e-05</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>6.534731765931242e-05</v>
+        <v>7.939712118023071e-05</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>2.400513709933926e-05</v>
+        <v>3.745147225482581e-05</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.0004921053105364548</v>
+        <v>0.000557277907151808</v>
       </c>
       <c r="W4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0</v>
+        <v>8.988353341158195e-06</v>
       </c>
       <c r="Y4" s="2" t="n">
         <v>0</v>
@@ -920,22 +920,22 @@
         <v>0</v>
       </c>
       <c r="AD4" s="2" t="n">
-        <v>0.0001787049095173034</v>
+        <v>0.0002157204801877967</v>
       </c>
       <c r="AE4" s="2" t="n">
-        <v>2.800599328256247e-05</v>
+        <v>5.99223556077213e-05</v>
       </c>
       <c r="AF4" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>5.992235560772129e-06</v>
       </c>
       <c r="AG4" s="2" t="n">
-        <v>0.0002773926953701425</v>
+        <v>0.000322082661391502</v>
       </c>
       <c r="AH4" s="2" t="n">
-        <v>2.133789964385712e-05</v>
+        <v>6.591459116849342e-05</v>
       </c>
       <c r="AI4" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
     </row>
     <row r="5">
@@ -945,82 +945,82 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.0128360802545078</v>
+        <v>0.01330725712158471</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.002377842191562328</v>
+        <v>0.002825339066904059</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.933961201030354e-05</v>
+        <v>3.295729558424671e-05</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7.334903002575885e-05</v>
+        <v>0.0001048641223135123</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.533875582708033e-05</v>
+        <v>4.194564892540491e-05</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.0005907930963892939</v>
+        <v>0.0006756245594770576</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.001967087623418078</v>
+        <v>0.002299520396446305</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>7.490294450965162e-06</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0008828555977645883</v>
+        <v>0.001002201397539139</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>0.001559000292729311</v>
+        <v>0.001860589141619746</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>6.142041449791432e-05</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0.000268057364275955</v>
+        <v>0.0003280748969522741</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>0.0001707031971508569</v>
+        <v>0.000230701069089727</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>3.334046819352675e-05</v>
+        <v>8.389129785080981e-05</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.067323073804461e-05</v>
+        <v>5.692623782733523e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>0.005257125024755297</v>
+        <v>0.006049161798599465</v>
       </c>
       <c r="R5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>0.0003760804812229817</v>
+        <v>0.0004284448425952072</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>0.001198923236239222</v>
+        <v>0.001361735531185466</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.002325831061180426</v>
+        <v>0.002662050647873019</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>0.0004334260865158477</v>
+        <v>0.0005228225526773683</v>
       </c>
       <c r="W5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.000190707478066973</v>
+        <v>0.0002456816579916573</v>
       </c>
       <c r="Y5" s="2" t="n">
-        <v>7.201541129801777e-05</v>
+        <v>8.538935674100285e-05</v>
       </c>
       <c r="Z5" s="2" t="n">
-        <v>8.001712366446419e-06</v>
+        <v>8.988353341158195e-06</v>
       </c>
       <c r="AA5" s="2" t="n">
-        <v>2.66723745548214e-05</v>
+        <v>3.145923669405368e-05</v>
       </c>
       <c r="AB5" s="2" t="n">
         <v>0</v>
@@ -1029,19 +1029,19 @@
         <v>0</v>
       </c>
       <c r="AD5" s="2" t="n">
-        <v>0.000858850460665249</v>
+        <v>0.001018680045331262</v>
       </c>
       <c r="AE5" s="2" t="n">
-        <v>4.400941801545531e-05</v>
+        <v>0.0001183466523252496</v>
       </c>
       <c r="AF5" s="2" t="n">
-        <v>2.133789964385712e-05</v>
+        <v>2.546700113328155e-05</v>
       </c>
       <c r="AG5" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>1.797670668231639e-05</v>
       </c>
       <c r="AH5" s="2" t="n">
-        <v>0.000305398688652705</v>
+        <v>0.0004239506659246282</v>
       </c>
       <c r="AI5" s="2" t="n">
         <v>0</v>
@@ -1054,82 +1054,82 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.003264698645510139</v>
+        <v>0.003400593680738184</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.0004654329359816334</v>
+        <v>0.0005587759660420011</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>5.992235560772129e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2.533875582708033e-05</v>
+        <v>4.194564892540491e-05</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.600342473289284e-05</v>
+        <v>2.696506002347458e-05</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.933961201030354e-05</v>
+        <v>3.295729558424671e-05</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.001928412680313587</v>
+        <v>0.002191660156352407</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0002160462338940533</v>
+        <v>0.0002441835991014643</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0.0007921695242781955</v>
+        <v>0.0009153139819079428</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0</v>
+        <v>1.647864779212336e-05</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>8.935245475865168e-05</v>
+        <v>0.0001033660634233192</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1.867066218837498e-05</v>
+        <v>2.996117780386065e-05</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>0.0005014406416306423</v>
+        <v>0.0005677643193831592</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0.004122215487447647</v>
+        <v>0.004655967030719944</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0.0001893738593392319</v>
+        <v>0.0002157204801877967</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>8.001712366446419e-06</v>
+        <v>1.498058890193032e-05</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>2.66723745548214e-05</v>
+        <v>4.494176670579097e-05</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>0.0008028384741001241</v>
+        <v>0.0009123178641275567</v>
       </c>
       <c r="W6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="Y6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Z6" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="AA6" s="2" t="n">
-        <v>0</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="AB6" s="2" t="n">
         <v>0</v>
@@ -1138,19 +1138,19 @@
         <v>0</v>
       </c>
       <c r="AD6" s="2" t="n">
-        <v>9.068607348639276e-05</v>
+        <v>0.0001108563578742844</v>
       </c>
       <c r="AE6" s="2" t="n">
-        <v>2.000428091611605e-05</v>
+        <v>3.295729558424671e-05</v>
       </c>
       <c r="AF6" s="2" t="n">
-        <v>1.200256854966963e-05</v>
+        <v>1.348253001173729e-05</v>
       </c>
       <c r="AG6" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>7.490294450965162e-06</v>
       </c>
       <c r="AH6" s="2" t="n">
-        <v>8.801883603091062e-05</v>
+        <v>0.0001138524756546705</v>
       </c>
       <c r="AI6" s="2" t="n">
         <v>0</v>
@@ -1163,103 +1163,103 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.005737227766742083</v>
+        <v>0.00593830544072518</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.001522992587080302</v>
+        <v>0.001775199784878743</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.466980600515177e-05</v>
+        <v>1.647864779212336e-05</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.0002560547957262854</v>
+        <v>0.0002966156602582204</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.0008281772299272044</v>
+        <v>0.0009377848652608382</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0.0001226929229521784</v>
+        <v>0.0001453117123487241</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.002509870445608694</v>
+        <v>0.00287028083360985</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.0005707888154731779</v>
+        <v>0.0006426672638928109</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0008748538853981418</v>
+        <v>0.0009887188675274015</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.001298944640819802</v>
+        <v>0.001514537537985156</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.0001466980600515177</v>
+        <v>0.0001917515379447081</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.00085618322321e-05</v>
+        <v>5.542817893714219e-05</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>8.935245475865168e-05</v>
+        <v>0.0001123544167644774</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0</v>
+        <v>3.295729558424671e-05</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0.0002107117589830891</v>
+        <v>0.0002411874813210782</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0.004368934952079745</v>
+        <v>0.004966065220989902</v>
       </c>
       <c r="R7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>0.0003907502872281335</v>
+        <v>0.0004389312548265585</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0.0001266937791354016</v>
+        <v>0.0001543000656898823</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>9.335331094187489e-05</v>
+        <v>0.0001273350056664078</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>0.001713700065147275</v>
+        <v>0.001942982380580363</v>
       </c>
       <c r="W7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0</v>
+        <v>2.396894224308852e-05</v>
       </c>
       <c r="Y7" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>1.048641223135123e-05</v>
       </c>
       <c r="Z7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="AB7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AC7" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="AD7" s="2" t="n">
-        <v>8.668521730316955e-05</v>
+        <v>0.0001138524756546705</v>
       </c>
       <c r="AE7" s="2" t="n">
-        <v>2.533875582708033e-05</v>
+        <v>5.243206115675613e-05</v>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>6.801455511479456e-05</v>
+        <v>7.640100339984466e-05</v>
       </c>
       <c r="AG7" s="2" t="n">
-        <v>0.0001827057657005266</v>
+        <v>0.0002067321268466385</v>
       </c>
       <c r="AH7" s="2" t="n">
-        <v>0.0003440736317571961</v>
+        <v>0.0004194564892540491</v>
       </c>
       <c r="AI7" s="2" t="n">
         <v>0</v>
@@ -1272,103 +1272,103 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.003009977468511595</v>
+        <v>0.003114464432711314</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.001672357884587302</v>
+        <v>0.001917515379447081</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.001900406687031025</v>
+        <v>0.002134733918525071</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.003867494310449103</v>
+        <v>0.004353359134900952</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.000420089899238437</v>
+        <v>0.0004763827270813843</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.004102211206531531</v>
+        <v>0.004611025264014154</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.001309613590641731</v>
+        <v>0.001519031714655735</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.002452524840315828</v>
+        <v>0.002754930299064986</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.0006841464073311689</v>
+        <v>0.0007715003284494117</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.002208472613139212</v>
+        <v>0.00250475446440275</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>1.947476557250942e-05</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0.0006441378454989367</v>
+        <v>0.0007235624439632346</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>0.004247575647855308</v>
+        <v>0.004786298154166739</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0.003147340197468925</v>
+        <v>0.003548901510867294</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>0.007781665276369143</v>
+        <v>0.00874416974205673</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0.001628348466571846</v>
+        <v>0.001854596906058974</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.002175132144945685</v>
+        <v>0.002444832108795029</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0.005275795686943673</v>
+        <v>0.005932313205164408</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>0.003159342766018595</v>
+        <v>0.003554893746428066</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.004586314804701539</v>
+        <v>0.005156318700044417</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0.0003013978324694818</v>
+        <v>0.0003460516036345905</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.0001106903544025088</v>
+        <v>0.0001243388878860217</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>7.601626748124099e-05</v>
+        <v>8.988353341158195e-05</v>
       </c>
       <c r="Y8" s="2" t="n">
-        <v>0.0005281130161854636</v>
+        <v>0.0005947293794066338</v>
       </c>
       <c r="Z8" s="2" t="n">
-        <v>0.003434068223933255</v>
+        <v>0.003857501642247058</v>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>0.001460312506876472</v>
+        <v>0.00164037448476137</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>0.001134909537307651</v>
+        <v>0.00127484811555427</v>
       </c>
       <c r="AC8" s="2" t="n">
-        <v>7.601626748124099e-05</v>
+        <v>8.688741563119588e-05</v>
       </c>
       <c r="AD8" s="2" t="n">
-        <v>0.001093567356747677</v>
+        <v>0.00122990634884848</v>
       </c>
       <c r="AE8" s="2" t="n">
-        <v>0.0004934389292641959</v>
+        <v>0.0005662662604929662</v>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="AG8" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>1.048641223135123e-05</v>
       </c>
       <c r="AH8" s="2" t="n">
-        <v>0.0002867280264643301</v>
+        <v>0.0003340671325130462</v>
       </c>
       <c r="AI8" s="2" t="n">
         <v>0</v>
@@ -1381,67 +1381,67 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.001236264560615972</v>
+        <v>0.001321287941150255</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.0008895236914032936</v>
+        <v>0.001006695574209718</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.867066218837498e-05</v>
+        <v>2.097282446270245e-05</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.0003654115314010532</v>
+        <v>0.0004104681359128908</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.0005707888154731779</v>
+        <v>0.0006426672638928109</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>7.334903002575885e-05</v>
+        <v>8.239323896061678e-05</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.0002440522271766158</v>
+        <v>0.0002741447769053249</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>1.348253001173729e-05</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0.0001453644413237766</v>
+        <v>0.0001677825957016196</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>0.000248053083359839</v>
+        <v>0.0002801370124660971</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>0</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>7.490294450965162e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0.001559000292729311</v>
+        <v>0.001764713372647392</v>
       </c>
       <c r="R9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>0.0003107331635636693</v>
+        <v>0.0003490477214149765</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>9.335331094187489e-06</v>
+        <v>1.348253001173729e-05</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>0.0007014834507918028</v>
+        <v>0.0007999634473630793</v>
       </c>
       <c r="W9" s="2" t="n">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="AA9" s="2" t="n">
         <v>0</v>
@@ -1465,19 +1465,19 @@
         <v>0</v>
       </c>
       <c r="AD9" s="2" t="n">
-        <v>1.200256854966963e-05</v>
+        <v>1.348253001173729e-05</v>
       </c>
       <c r="AE9" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="AF9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG9" s="2" t="n">
-        <v>1.33361872774107e-05</v>
+        <v>1.498058890193032e-05</v>
       </c>
       <c r="AH9" s="2" t="n">
-        <v>0.0001120239731302499</v>
+        <v>0.0001258369467762147</v>
       </c>
       <c r="AI9" s="2" t="n">
         <v>0</v>
@@ -1490,82 +1490,82 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.004143553387091504</v>
+        <v>0.00434736689934018</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.003935508865563897</v>
+        <v>0.004459721316104657</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>6.668093638705349e-06</v>
+        <v>7.490294450965162e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.0003920839059558745</v>
+        <v>0.0004479196081677167</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.33361872774107e-05</v>
+        <v>1.647864779212336e-05</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.0008921909288587758</v>
+        <v>0.001030664516452806</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>4.943594337637007e-05</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.002255149268610149</v>
+        <v>0.00255419040777912</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>8.001712366446419e-06</v>
+        <v>1.498058890193032e-05</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.334046819352675e-05</v>
+        <v>4.494176670579097e-05</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.534731765931242e-05</v>
+        <v>7.789906229003768e-05</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1.200256854966963e-05</v>
+        <v>2.396894224308852e-05</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.067323073804461e-05</v>
+        <v>3.745147225482581e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0.00120959218606115</v>
+        <v>0.001391696708989327</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>1.200256854966963e-05</v>
+        <v>1.348253001173729e-05</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>6.668093638705349e-06</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>2.533875582708033e-05</v>
+        <v>4.643982559598401e-05</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>0.0002227143275327587</v>
+        <v>0.0002651564235641667</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="Y10" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="Z10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AA10" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>5.992235560772129e-06</v>
       </c>
       <c r="AB10" s="2" t="n">
         <v>0</v>
@@ -1574,19 +1574,19 @@
         <v>0</v>
       </c>
       <c r="AD10" s="2" t="n">
-        <v>6.534731765931242e-05</v>
+        <v>8.688741563119588e-05</v>
       </c>
       <c r="AE10" s="2" t="n">
-        <v>0.000152032534962482</v>
+        <v>0.0001917515379447081</v>
       </c>
       <c r="AF10" s="2" t="n">
-        <v>2.800599328256247e-05</v>
+        <v>3.145923669405368e-05</v>
       </c>
       <c r="AG10" s="2" t="n">
-        <v>2.000428091611605e-05</v>
+        <v>2.696506002347458e-05</v>
       </c>
       <c r="AH10" s="2" t="n">
-        <v>0.0003547425815791246</v>
+        <v>0.00041496231258347</v>
       </c>
       <c r="AI10" s="2" t="n">
         <v>0</v>
@@ -1599,103 +1599,103 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.009029932405534784</v>
+        <v>0.00926249811806352</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.0001573670098734462</v>
+        <v>0.0002711486591249388</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.0006147982334886332</v>
+        <v>0.000690605148378988</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.002263150980976596</v>
+        <v>0.002552692348888927</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.0009575382465180882</v>
+        <v>0.001092084930950721</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.002003095329067087</v>
+        <v>0.002268061159752251</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.0001600342473289284</v>
+        <v>0.0002696506002347458</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.0009281986345077846</v>
+        <v>0.001050139282025316</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0006334688956770082</v>
+        <v>0.0007175702084024626</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.0008721866479426598</v>
+        <v>0.001059127635366474</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>6.441653227830039e-05</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0.002828605321538809</v>
+        <v>0.00321633243724444</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.007729654145987241</v>
+        <v>0.00870971438758229</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0.00245519207777131</v>
+        <v>0.002810358478002129</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>0.007277557397283019</v>
+        <v>0.008197378247136273</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0.0008255099924717223</v>
+        <v>0.001003699456429332</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.001200256854966963</v>
+        <v>0.001349751060063922</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.004319591059153326</v>
+        <v>0.004859703039786197</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>0.001349622152473963</v>
+        <v>0.001529518126887086</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.003728797962764032</v>
+        <v>0.004235012482575702</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>7.868350493672312e-05</v>
+        <v>0.0001258369467762147</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.0004560976048874459</v>
+        <v>0.0005123361404460171</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.0001973755717056783</v>
+        <v>0.0002396894224308852</v>
       </c>
       <c r="Y11" s="2" t="n">
-        <v>0.0005734560529286601</v>
+        <v>0.000650157558343776</v>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>0.001560333911457052</v>
+        <v>0.001754226960416041</v>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>0.00103488813272707</v>
+        <v>0.001162493698789793</v>
       </c>
       <c r="AB11" s="2" t="n">
-        <v>0.0005907930963892939</v>
+        <v>0.0006636400883555133</v>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="AD11" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>2.846311891366761e-05</v>
       </c>
       <c r="AE11" s="2" t="n">
-        <v>2.400513709933926e-05</v>
+        <v>9.138159230177498e-05</v>
       </c>
       <c r="AF11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG11" s="2" t="n">
-        <v>0.0001040222607638035</v>
+        <v>0.0001273350056664078</v>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>1.466980600515177e-05</v>
+        <v>6.591459116849342e-05</v>
       </c>
       <c r="AI11" s="2" t="n">
         <v>0</v>
@@ -1708,10 +1708,10 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>3.867494310449103e-05</v>
+        <v>2.396894224308852e-05</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.0007614962935401509</v>
+        <v>0.0008553916263002215</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -1726,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.001864398981382016</v>
+        <v>0.002094286328489859</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.00137096005211782</v>
+        <v>0.001540004539118437</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0</v>
+        <v>5.992235560772129e-06</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0.003302039969886889</v>
+        <v>0.003712189929898334</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         <v>0</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="U12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>9.468692966961597e-05</v>
+        <v>0.0001063621812037053</v>
       </c>
       <c r="W12" s="2" t="n">
         <v>0</v>
@@ -1792,19 +1792,19 @@
         <v>0</v>
       </c>
       <c r="AD12" s="2" t="n">
-        <v>0.001329617871557847</v>
+        <v>0.001493564713522453</v>
       </c>
       <c r="AE12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF12" s="2" t="n">
-        <v>2.933961201030354e-05</v>
+        <v>3.295729558424671e-05</v>
       </c>
       <c r="AG12" s="2" t="n">
-        <v>1.867066218837498e-05</v>
+        <v>2.696506002347458e-05</v>
       </c>
       <c r="AH12" s="2" t="n">
-        <v>4.00085618322321e-05</v>
+        <v>4.643982559598401e-05</v>
       </c>
       <c r="AI12" s="2" t="n">
         <v>0</v>
@@ -1817,103 +1817,103 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.009406012886757766</v>
+        <v>0.00973738278625471</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.004240907554216603</v>
+        <v>0.004870189452017548</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.0001040222607638035</v>
+        <v>0.0001183466523252496</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.0002027100466166426</v>
+        <v>0.0002531719524426225</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.0001040222607638035</v>
+        <v>0.0001243388878860217</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0.000190707478066973</v>
+        <v>0.0002202146568583758</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.001176251717867624</v>
+        <v>0.001405179239001064</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.0001400299664128123</v>
+        <v>0.0001587942423604614</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.0003454072504849371</v>
+        <v>0.0003999817236815397</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>0.002332499154819132</v>
+        <v>0.00272197300348074</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>4.667665547093745e-05</v>
+        <v>0.0001108563578742844</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.134218055997317e-05</v>
+        <v>6.142041449791432e-05</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>0.0002720582204591782</v>
+        <v>0.0003385613091836253</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>7.601626748124099e-05</v>
+        <v>0.0001303311234467938</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>0.0003440736317571961</v>
+        <v>0.0003984836647913466</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0.001748374152068543</v>
+        <v>0.002032865913991945</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>5.601198656512494e-05</v>
+        <v>6.291847338810736e-05</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>0.0006894808822421331</v>
+        <v>0.0007804886817905698</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>0.004391606470451343</v>
+        <v>0.0049450923965272</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0004734346483480798</v>
+        <v>0.0005527837304812289</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>0.0006454714642266778</v>
+        <v>0.0007685042106690256</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>7.490294450965162e-06</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-05</v>
       </c>
       <c r="Y13" s="2" t="n">
-        <v>2.533875582708033e-05</v>
+        <v>2.846311891366761e-05</v>
       </c>
       <c r="Z13" s="2" t="n">
-        <v>0.0003227357321133389</v>
+        <v>0.000368522486987486</v>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>0.0003587434377623478</v>
+        <v>0.0004029778414619257</v>
       </c>
       <c r="AB13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="AD13" s="2" t="n">
-        <v>0.0001867066218837498</v>
+        <v>0.000229203010199534</v>
       </c>
       <c r="AE13" s="2" t="n">
-        <v>0.0008641849355762133</v>
+        <v>0.001024672280892034</v>
       </c>
       <c r="AF13" s="2" t="n">
-        <v>8.268436111994633e-05</v>
+        <v>9.287965119196801e-05</v>
       </c>
       <c r="AG13" s="2" t="n">
-        <v>3.067323073804461e-05</v>
+        <v>4.793788448617703e-05</v>
       </c>
       <c r="AH13" s="2" t="n">
-        <v>0.0001226929229521784</v>
+        <v>0.0001962457146152872</v>
       </c>
       <c r="AI13" s="2" t="n">
         <v>0</v>
@@ -1926,82 +1926,82 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.00275525629151305</v>
+        <v>0.002808860419111936</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.009037934117901231</v>
+        <v>0.01019578880665378</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.0006201327083995975</v>
+        <v>0.0006980954428299531</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.0006454714642266778</v>
+        <v>0.0007310527384141998</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.001504321924891927</v>
+        <v>0.00169430460480832</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0.0006654757451427939</v>
+        <v>0.0007520255628769022</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.004143553387091504</v>
+        <v>0.004681434031853227</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>2.000428091611605e-05</v>
+        <v>2.247088335289549e-05</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.0001773712907895623</v>
+        <v>0.0002022379501760594</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0.003722129869125326</v>
+        <v>0.00419905906921107</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.467408692126782e-05</v>
+        <v>4.943594337637007e-05</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>0.0006548067953208653</v>
+        <v>0.000740041091755358</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>0.001504321924891927</v>
+        <v>0.001697300722588706</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0.0001840393844282676</v>
+        <v>0.00023219912797992</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>1.348253001173729e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0.0065560696655751</v>
+        <v>0.007394418681992808</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0005854586214783297</v>
+        <v>0.0006606439705751273</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0.0001827057657005266</v>
+        <v>0.0002112263035172176</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>0.002829938940266551</v>
+        <v>0.00318637125944058</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0001773712907895623</v>
+        <v>0.0002097282446270245</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>0.001006882139444508</v>
+        <v>0.001143018933217284</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>3.067323073804461e-05</v>
+        <v>3.745147225482581e-05</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>7.201541129801777e-05</v>
+        <v>8.538935674100285e-05</v>
       </c>
       <c r="Y14" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="Z14" s="2" t="n">
-        <v>3.334046819352675e-05</v>
+        <v>3.745147225482581e-05</v>
       </c>
       <c r="AA14" s="2" t="n">
-        <v>0.000497439785447419</v>
+        <v>0.0005587759660420011</v>
       </c>
       <c r="AB14" s="2" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="AD14" s="2" t="n">
-        <v>0.001341620440107516</v>
+        <v>0.001510043361314577</v>
       </c>
       <c r="AE14" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.348253001173729e-05</v>
       </c>
       <c r="AF14" s="2" t="n">
-        <v>0.0001000214045805802</v>
+        <v>0.0001123544167644774</v>
       </c>
       <c r="AG14" s="2" t="n">
-        <v>3.867494310449103e-05</v>
+        <v>4.344370781559794e-05</v>
       </c>
       <c r="AH14" s="2" t="n">
-        <v>0.0006734774575092404</v>
+        <v>0.000784982858461149</v>
       </c>
       <c r="AI14" s="2" t="n">
         <v>0</v>
@@ -2035,82 +2035,82 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.005074419259054771</v>
+        <v>0.005262680881248123</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.002432520559399712</v>
+        <v>0.002777401182417882</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.733704346063391e-05</v>
+        <v>2.097282446270245e-05</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>8.135074239220526e-05</v>
+        <v>9.73738278625471e-05</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.668093638705349e-06</v>
+        <v>8.988353341158195e-06</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>5.33447491096428e-05</v>
+        <v>6.142041449791432e-05</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.003856825360627174</v>
+        <v>0.004372833900473462</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.0004107545681442495</v>
+        <v>0.000462900197069647</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>0.002433854178127453</v>
+        <v>0.002769910887966917</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>7.468264875349991e-05</v>
+        <v>0.0001153505345448635</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>9.335331094187489e-06</v>
+        <v>3.145923669405368e-05</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.600770564900889e-05</v>
+        <v>5.393012004694917e-05</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>8.801883603091062e-05</v>
+        <v>0.0001153505345448635</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>0</v>
+        <v>5.992235560772129e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0.004468956356660325</v>
+        <v>0.00511287499222882</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>0.0002813935515533658</v>
+        <v>0.000323580720281695</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>0.0008708530292149187</v>
+        <v>0.0009857227497470152</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>7.468264875349991e-05</v>
+        <v>0.0001033660634233192</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>0.001062894126009633</v>
+        <v>0.001216423818836742</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>1.200256854966963e-05</v>
+        <v>1.348253001173729e-05</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.0001053558794915445</v>
+        <v>0.0001213427701056356</v>
       </c>
       <c r="Y15" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>5.992235560772129e-06</v>
       </c>
       <c r="Z15" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="AA15" s="2" t="n">
-        <v>8.801883603091062e-05</v>
+        <v>0.0001018680045331262</v>
       </c>
       <c r="AB15" s="2" t="n">
         <v>0</v>
@@ -2119,19 +2119,19 @@
         <v>0</v>
       </c>
       <c r="AD15" s="2" t="n">
-        <v>0.0009962131896225793</v>
+        <v>0.001129536403205546</v>
       </c>
       <c r="AE15" s="2" t="n">
-        <v>0.0002107117589830891</v>
+        <v>0.0002606622468935877</v>
       </c>
       <c r="AF15" s="2" t="n">
-        <v>5.867922402060708e-05</v>
+        <v>6.591459116849342e-05</v>
       </c>
       <c r="AG15" s="2" t="n">
-        <v>5.867922402060708e-05</v>
+        <v>6.741265005868646e-05</v>
       </c>
       <c r="AH15" s="2" t="n">
-        <v>0.0004600984610706691</v>
+        <v>0.0005348070237989126</v>
       </c>
       <c r="AI15" s="2" t="n">
         <v>0</v>
@@ -2144,103 +2144,103 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.01257335736514281</v>
+        <v>0.01298966863686378</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.004216902417117263</v>
+        <v>0.004922621513174305</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.0002707246017314372</v>
+        <v>0.0003041059547091856</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.0009508701528793829</v>
+        <v>0.001084594636499755</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0.0001640351035121516</v>
+        <v>0.0001992418323956733</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.001616345898022177</v>
+        <v>0.001826133787145306</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.006203994321451457</v>
+        <v>0.00708432049172285</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.0008415134172046152</v>
+        <v>0.0009467732186019965</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.001465646981787436</v>
+        <v>0.001655355073663301</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0.002743253722963381</v>
+        <v>0.003153413963856333</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.0003040650699249639</v>
+        <v>0.0003805069581090302</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0.0005307802536409458</v>
+        <v>0.0006336789105516527</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>0.0002707246017314372</v>
+        <v>0.0003385613091836253</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0.001200256854966963</v>
+        <v>0.001396190885659906</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>0.002276487168254006</v>
+        <v>0.002572167114461437</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0.00555852285722478</v>
+        <v>0.006429668756708495</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>9.335331094187489e-05</v>
+        <v>0.0001063621812037053</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0.0009188633034135972</v>
+        <v>0.001041150928684158</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>0.001181586192778588</v>
+        <v>0.001354245236734501</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0009495365341516418</v>
+        <v>0.001120548049864388</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>0.0002773926953701425</v>
+        <v>0.0003520438391953626</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.0001266937791354016</v>
+        <v>0.0001707787134820057</v>
       </c>
       <c r="Y16" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="Z16" s="2" t="n">
-        <v>0.0009868778585283918</v>
+        <v>0.001108563578742844</v>
       </c>
       <c r="AA16" s="2" t="n">
-        <v>0.0001827057657005266</v>
+        <v>0.0002052340679564454</v>
       </c>
       <c r="AB16" s="2" t="n">
-        <v>3.467408692126782e-05</v>
+        <v>3.894953114501884e-05</v>
       </c>
       <c r="AC16" s="2" t="n">
-        <v>1.33361872774107e-05</v>
+        <v>1.647864779212336e-05</v>
       </c>
       <c r="AD16" s="2" t="n">
-        <v>0.0001120239731302499</v>
+        <v>0.0001602923012506545</v>
       </c>
       <c r="AE16" s="2" t="n">
-        <v>0.001278940359903686</v>
+        <v>0.001508545302424384</v>
       </c>
       <c r="AF16" s="2" t="n">
-        <v>9.335331094187489e-05</v>
+        <v>0.0001123544167644774</v>
       </c>
       <c r="AG16" s="2" t="n">
-        <v>6.401369893157135e-05</v>
+        <v>8.988353341158195e-05</v>
       </c>
       <c r="AH16" s="2" t="n">
-        <v>0.0004294252303326245</v>
+        <v>0.0005333089649087196</v>
       </c>
       <c r="AI16" s="2" t="n">
         <v>0</v>
@@ -2253,103 +2253,103 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.009387342224569391</v>
+        <v>0.009668472077305831</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3.867494310449103e-05</v>
+        <v>0.0001572961834702684</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.001828391275733007</v>
+        <v>0.002058332915125226</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.00552118153284803</v>
+        <v>0.006231924983203014</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0.005275795686943673</v>
+        <v>0.005932313205164408</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0.002763258003879497</v>
+        <v>0.003106974138260349</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.0003080659261081872</v>
+        <v>0.0004449234903873306</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.0001160248293134731</v>
+        <v>0.0001318291823369868</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0007294894440743652</v>
+        <v>0.0008239323896061678</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>0.0002440522271766158</v>
+        <v>0.0003460516036345905</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.867066218837498e-05</v>
+        <v>6.441653227830039e-05</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0.008005713222629643</v>
+        <v>0.009019812577852247</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>0.004595650135795727</v>
+        <v>0.005193770172299243</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>0.002765925241334979</v>
+        <v>0.003156410081636719</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>0.008685858773777588</v>
+        <v>0.009773336199619342</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0.0001947083342501962</v>
+        <v>0.0003145923669405368</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.007405584795146161</v>
+        <v>0.008318721017241909</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>0.008328448954742981</v>
+        <v>0.009362868063706453</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>0.002679240024031809</v>
+        <v>0.00301858866373896</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01061427145409118</v>
+        <v>0.01197248665042271</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>4.400941801545531e-05</v>
+        <v>7.490294450965162e-05</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.0004547639861597049</v>
+        <v>0.0005123361404460171</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.001692362165503418</v>
+        <v>0.001916017320556888</v>
       </c>
       <c r="Y17" s="2" t="n">
-        <v>0.0001960419529779373</v>
+        <v>0.0002277049513093409</v>
       </c>
       <c r="Z17" s="2" t="n">
-        <v>4.00085618322321e-05</v>
+        <v>4.793788448617703e-05</v>
       </c>
       <c r="AA17" s="2" t="n">
-        <v>0.0002307160398992051</v>
+        <v>0.0002591641880033946</v>
       </c>
       <c r="AB17" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="AC17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD17" s="2" t="n">
-        <v>2.267151837159819e-05</v>
+        <v>4.793788448617703e-05</v>
       </c>
       <c r="AE17" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>8.089518007042375e-05</v>
       </c>
       <c r="AF17" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="AG17" s="2" t="n">
-        <v>0</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="AH17" s="2" t="n">
-        <v>0</v>
+        <v>4.494176670579097e-05</v>
       </c>
       <c r="AI17" s="2" t="n">
         <v>0</v>
@@ -2362,82 +2362,82 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.01436307369777132</v>
+        <v>0.01500231075583812</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.0006881472635143921</v>
+        <v>0.0008913450396648543</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.0002427186084488747</v>
+        <v>0.0002891253658072552</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>8.988353341158195e-06</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>8.935245475865168e-05</v>
+        <v>0.0001048641223135123</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.0007801669557285259</v>
+        <v>0.0009977072208685596</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>3.295729558424671e-05</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0.0002200470900772765</v>
+        <v>0.0003415574269640114</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>8.688741563119588e-05</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>3.145923669405368e-05</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.533875582708033e-05</v>
+        <v>4.643982559598401e-05</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0.0001080231169470267</v>
+        <v>0.000187257361274129</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>2.696506002347458e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0.001230930085705008</v>
+        <v>0.001540004539118437</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>2.133789964385712e-05</v>
+        <v>2.696506002347458e-05</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0.0001040222607638035</v>
+        <v>0.0001273350056664078</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>0.001518991730897079</v>
+        <v>0.001725763841502373</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>5.867922402060708e-05</v>
+        <v>0.0001168485934350565</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>0.0004467622737932584</v>
+        <v>0.0005333089649087196</v>
       </c>
       <c r="W18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>4.044759003521187e-05</v>
       </c>
       <c r="Y18" s="2" t="n">
-        <v>0</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="Z18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AA18" s="2" t="n">
-        <v>9.335331094187489e-06</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="AB18" s="2" t="n">
         <v>0</v>
@@ -2446,19 +2446,19 @@
         <v>0</v>
       </c>
       <c r="AD18" s="2" t="n">
-        <v>8.935245475865168e-05</v>
+        <v>0.0001363233590075659</v>
       </c>
       <c r="AE18" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>7.789906229003768e-05</v>
       </c>
       <c r="AF18" s="2" t="n">
-        <v>8.668521730316955e-05</v>
+        <v>9.73738278625471e-05</v>
       </c>
       <c r="AG18" s="2" t="n">
-        <v>0</v>
+        <v>1.647864779212336e-05</v>
       </c>
       <c r="AH18" s="2" t="n">
-        <v>2.66723745548214e-05</v>
+        <v>0.0001048641223135123</v>
       </c>
       <c r="AI18" s="2" t="n">
         <v>0</v>
@@ -2471,106 +2471,106 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.003904835634825853</v>
+        <v>0.004038766767960415</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.002195136425861801</v>
+        <v>0.002510746699963522</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.001020218326721918</v>
+        <v>0.00114601505099767</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.0006081301398499279</v>
+        <v>0.000692103207269181</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0.001025552801632883</v>
+        <v>0.001153505345448635</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0.0009015262599529633</v>
+        <v>0.00101268780977049</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.005847918121144591</v>
+        <v>0.006606439705751273</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.0003400727755739728</v>
+        <v>0.0003850011347796093</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>0.0008868564539478115</v>
+        <v>0.001023174222001841</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>1.947476557250942e-05</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0.001305612734458508</v>
+        <v>0.001474089947949944</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>1.498058890193032e-05</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>2.933961201030354e-05</v>
+        <v>5.09340022665631e-05</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>0.0001026886420360624</v>
+        <v>0.0001228408289958286</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0.00582124574658977</v>
+        <v>0.006606439705751273</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.005826580221500735</v>
+        <v>0.006545019291253358</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>0.001114905256391535</v>
+        <v>0.001258369467762147</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>0.0002240479462604998</v>
+        <v>0.0002531719524426225</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.002748588197874345</v>
+        <v>0.00310247996158977</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>0.0006561404140486064</v>
+        <v>0.0007460333273161302</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.0001266937791354016</v>
+        <v>0.0001423155945683381</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.0001600342473289284</v>
+        <v>0.0001887554201643221</v>
       </c>
       <c r="Y19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Z19" s="2" t="n">
-        <v>3.067323073804461e-05</v>
+        <v>3.445535447443975e-05</v>
       </c>
       <c r="AA19" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="AB19" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="AC19" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="AD19" s="2" t="n">
-        <v>0.0002413849897211337</v>
+        <v>0.000278638953575904</v>
       </c>
       <c r="AE19" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-05</v>
       </c>
       <c r="AF19" s="2" t="n">
-        <v>0.001113571637663793</v>
+        <v>0.001250879173311182</v>
       </c>
       <c r="AG19" s="2" t="n">
-        <v>4.667665547093745e-05</v>
+        <v>6.142041449791432e-05</v>
       </c>
       <c r="AH19" s="2" t="n">
-        <v>0.0001026886420360624</v>
+        <v>0.0001453117123487241</v>
       </c>
       <c r="AI19" s="2" t="n">
-        <v>2.533875582708033e-05</v>
+        <v>2.846311891366761e-05</v>
       </c>
     </row>
     <row r="20">
@@ -2580,82 +2580,82 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.01445109253380223</v>
+        <v>0.01508095884757326</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.002877949214465229</v>
+        <v>0.003381118915165674</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.0001493652975069998</v>
+        <v>0.0001677825957016196</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.002253815649882408</v>
+        <v>0.00255419040777912</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.800599328256247e-05</v>
+        <v>4.643982559598401e-05</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0.000381414956133946</v>
+        <v>0.0004389312548265585</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.00454897348032479</v>
+        <v>0.005244704174565806</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>9.335331094187489e-05</v>
+        <v>0.0001048641223135123</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>2.66723745548214e-05</v>
+        <v>3.595341336463278e-05</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0.004990401279207084</v>
+        <v>0.005701612136074681</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.0005241121600022405</v>
+        <v>0.000650157558343776</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0.0003827485748616871</v>
+        <v>0.0004539118437284888</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>0.0005467836783738387</v>
+        <v>0.000650157558343776</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0.0001573670098734462</v>
+        <v>0.0002666544824543598</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>0.0007148196380692135</v>
+        <v>0.0008224343307159748</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0.004853038550249753</v>
+        <v>0.005580269365969046</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>9.335331094187489e-05</v>
+        <v>0.0001078602400938983</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0.0003200684946578568</v>
+        <v>0.0003715186047678721</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>0.0007308230628021063</v>
+        <v>0.0008419090962884842</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.001556333055273829</v>
+        <v>0.001794674550451253</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>0.001058893269826409</v>
+        <v>0.001222416054397515</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>2.66723745548214e-05</v>
+        <v>3.145923669405368e-05</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>2.400513709933926e-05</v>
+        <v>6.142041449791432e-05</v>
       </c>
       <c r="Y20" s="2" t="n">
-        <v>0</v>
+        <v>5.992235560772129e-06</v>
       </c>
       <c r="Z20" s="2" t="n">
-        <v>6.668093638705349e-06</v>
+        <v>1.048641223135123e-05</v>
       </c>
       <c r="AA20" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="AB20" s="2" t="n">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         <v>0</v>
       </c>
       <c r="AD20" s="2" t="n">
-        <v>0.0005681215780176958</v>
+        <v>0.0006681342650260925</v>
       </c>
       <c r="AE20" s="2" t="n">
-        <v>0.0006428042267711958</v>
+        <v>0.0008119479184846236</v>
       </c>
       <c r="AF20" s="2" t="n">
-        <v>4.934389292641958e-05</v>
+        <v>5.542817893714219e-05</v>
       </c>
       <c r="AG20" s="2" t="n">
-        <v>0.0001880402406114909</v>
+        <v>0.000233697186870113</v>
       </c>
       <c r="AH20" s="2" t="n">
-        <v>0.0004640993172538923</v>
+        <v>0.0005767526727243175</v>
       </c>
       <c r="AI20" s="2" t="n">
         <v>0</v>
@@ -2689,106 +2689,106 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.007248217785272715</v>
+        <v>0.007171207907354046</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.003658116170193755</v>
+        <v>0.004182580421418947</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.0003614106752178299</v>
+        <v>0.0004269467837050142</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.200256854966963e-05</v>
+        <v>2.996117780386065e-05</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>9.468692966961597e-05</v>
+        <v>0.0001123544167644774</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.005094423539970887</v>
+        <v>0.00581995878839993</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>8.001712366446419e-06</v>
+        <v>1.348253001173729e-05</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>0.003568763715435103</v>
+        <v>0.004073222122434855</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.000172036815878598</v>
+        <v>0.0002621603057837807</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0.0007174868755246956</v>
+        <v>0.0008733683329825378</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>0.000248053083359839</v>
+        <v>0.0002876273069170622</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>6.668093638705349e-06</v>
+        <v>5.99223556077213e-05</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>0.0007734988620898206</v>
+        <v>0.000880858627433503</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0.00534781109824169</v>
+        <v>0.006215446335410891</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>7.201541129801777e-05</v>
+        <v>8.239323896061678e-05</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>0.0005934603338447761</v>
+        <v>0.0006696323239162855</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>0.009117951241565695</v>
+        <v>0.0102557111622615</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.0001587006286011873</v>
+        <v>0.0002097282446270245</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>0.001268271410081757</v>
+        <v>0.001478584124620523</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>1.33361872774107e-05</v>
+        <v>1.498058890193032e-05</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>2.000428091611605e-05</v>
+        <v>4.643982559598401e-05</v>
       </c>
       <c r="Y21" s="2" t="n">
-        <v>0</v>
+        <v>7.490294450965162e-06</v>
       </c>
       <c r="Z21" s="2" t="n">
-        <v>0.00241785075339456</v>
+        <v>0.002717478826810161</v>
       </c>
       <c r="AA21" s="2" t="n">
-        <v>5.201113038190173e-05</v>
+        <v>5.99223556077213e-05</v>
       </c>
       <c r="AB21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AC21" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="AD21" s="2" t="n">
-        <v>0.0004827699794422673</v>
+        <v>0.0005482895538106499</v>
       </c>
       <c r="AE21" s="2" t="n">
-        <v>0.0001013550233083213</v>
+        <v>0.0001632884190310405</v>
       </c>
       <c r="AF21" s="2" t="n">
-        <v>0.002273819930798524</v>
+        <v>0.00255419040777912</v>
       </c>
       <c r="AG21" s="2" t="n">
-        <v>0.0006921481196976153</v>
+        <v>0.0007969673295826933</v>
       </c>
       <c r="AH21" s="2" t="n">
-        <v>0.001022885564177401</v>
+        <v>0.001202941288825005</v>
       </c>
       <c r="AI21" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
     </row>
     <row r="22">
@@ -2798,103 +2798,103 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.00299130680632322</v>
+        <v>0.003126448903832858</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.0002147126151663122</v>
+        <v>0.0002726467180151319</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.0007668307684511152</v>
+        <v>0.0008628819207511867</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.0007188204942524367</v>
+        <v>0.0008119479184846236</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0.0005267793974577227</v>
+        <v>0.0005917332616262478</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0.001548331342907382</v>
+        <v>0.001740744430404304</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>8.535159857542847e-05</v>
+        <v>0.0001318291823369868</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.0001693695784231159</v>
+        <v>0.0001917515379447081</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.0003600770564900889</v>
+        <v>0.0004059739592423118</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.600342473289284e-05</v>
+        <v>4.194564892540491e-05</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0.001222928373338561</v>
+        <v>0.001376716120087397</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>0.0010975682129309</v>
+        <v>0.001234400525519059</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0.001402966901583606</v>
+        <v>0.001590938541385</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>0.001799051663722703</v>
+        <v>0.002022379501760594</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>9.468692966961597e-05</v>
+        <v>0.0001258369467762147</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0006308016582215261</v>
+        <v>0.0007085818550613043</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0.002177799382401167</v>
+        <v>0.002447828226575415</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>0.0008561832232097669</v>
+        <v>0.000967746043064699</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.001204257711150186</v>
+        <v>0.001361735531185466</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>7.490294450965162e-06</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>6.401369893157135e-05</v>
+        <v>7.340488561945859e-05</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.0001160248293134731</v>
+        <v>0.000139319476787952</v>
       </c>
       <c r="Y22" s="2" t="n">
-        <v>0.0001080231169470267</v>
+        <v>0.0001228408289958286</v>
       </c>
       <c r="Z22" s="2" t="n">
-        <v>0.0005747896716564011</v>
+        <v>0.00064716144056339</v>
       </c>
       <c r="AA22" s="2" t="n">
-        <v>0.0001920410967947141</v>
+        <v>0.0002157204801877967</v>
       </c>
       <c r="AB22" s="2" t="n">
-        <v>8.401797984768741e-05</v>
+        <v>9.437771008216103e-05</v>
       </c>
       <c r="AC22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD22" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>1.797670668231639e-05</v>
       </c>
       <c r="AE22" s="2" t="n">
-        <v>0</v>
+        <v>1.947476557250942e-05</v>
       </c>
       <c r="AF22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG22" s="2" t="n">
-        <v>0</v>
+        <v>7.490294450965162e-06</v>
       </c>
       <c r="AH22" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>1.348253001173729e-05</v>
       </c>
       <c r="AI22" s="2" t="n">
         <v>0</v>
@@ -2907,73 +2907,73 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.000877521122853624</v>
+        <v>0.0008973372752256264</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.0001653687222398927</v>
+        <v>0.0001932495968349012</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>6.668093638705349e-06</v>
+        <v>7.490294450965162e-06</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>2.267151837159819e-05</v>
+        <v>3.595341336463278e-05</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>0.0001600342473289284</v>
+        <v>0.000187257361274129</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0</v>
+        <v>7.490294450965162e-06</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>7.490294450965162e-06</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.66723745548214e-05</v>
+        <v>3.595341336463278e-05</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>1.048641223135123e-05</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.066894982192856e-05</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>0.000153366153690223</v>
+        <v>0.000184261243493743</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>2.000428091611605e-05</v>
+        <v>2.247088335289549e-05</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>9.468692966961597e-05</v>
+        <v>0.0001078602400938983</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>5.992235560772129e-06</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>8.988353341158195e-06</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>1.466980600515177e-05</v>
+        <v>1.647864779212336e-05</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0</v>
+        <v>8.988353341158195e-06</v>
       </c>
       <c r="Y23" s="2" t="n">
         <v>0</v>
@@ -2991,19 +2991,19 @@
         <v>0</v>
       </c>
       <c r="AD23" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="AE23" s="2" t="n">
-        <v>9.335331094187489e-06</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="AF23" s="2" t="n">
-        <v>1.066894982192856e-05</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="AG23" s="2" t="n">
-        <v>0</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="AH23" s="2" t="n">
-        <v>0</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="AI23" s="2" t="n">
         <v>0</v>
@@ -3016,67 +3016,67 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.001164249149317954</v>
+        <v>0.001204439347715198</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.00089752540376974</v>
+        <v>0.001020178104221455</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>3.067323073804461e-05</v>
+        <v>3.445535447443975e-05</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.33361872774107e-05</v>
+        <v>1.797670668231639e-05</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>5.33447491096428e-05</v>
+        <v>5.99223556077213e-05</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.0002973969762862586</v>
+        <v>0.0003460516036345905</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0.001796384426267221</v>
+        <v>0.002028371737321366</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>1.498058890193032e-05</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1.048641223135123e-05</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.600342473289284e-05</v>
+        <v>1.797670668231639e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0.0003614106752178299</v>
+        <v>0.0004104681359128908</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0.0001066894982192856</v>
+        <v>0.0001198447112154426</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>0.0002227143275327587</v>
+        <v>0.0002531719524426225</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>8.001712366446419e-06</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>0.0003880830497726513</v>
+        <v>0.0004404293137167515</v>
       </c>
       <c r="W24" s="2" t="n">
         <v>0</v>
@@ -3097,22 +3097,22 @@
         <v>0</v>
       </c>
       <c r="AC24" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="AD24" s="2" t="n">
-        <v>0.0009842106210729096</v>
+        <v>0.00111155969652323</v>
       </c>
       <c r="AE24" s="2" t="n">
-        <v>0</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="AF24" s="2" t="n">
-        <v>1.066894982192856e-05</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="AG24" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="AH24" s="2" t="n">
-        <v>0.0002040436653443837</v>
+        <v>0.000233697186870113</v>
       </c>
       <c r="AI24" s="2" t="n">
         <v>0</v>
@@ -3125,73 +3125,73 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.0003120667822914104</v>
+        <v>0.000325078779171888</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.0001800385282450444</v>
+        <v>0.0002022379501760594</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>4.934389292641958e-05</v>
+        <v>5.542817893714219e-05</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>0.0001026886420360624</v>
+        <v>0.0001168485934350565</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.0003547425815791246</v>
+        <v>0.0003999817236815397</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>9.335331094187489e-06</v>
+        <v>1.048641223135123e-05</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0.0005934603338447761</v>
+        <v>0.0006711303828064785</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>3.734132437674996e-05</v>
+        <v>4.344370781559794e-05</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>5.867922402060708e-05</v>
+        <v>6.741265005868646e-05</v>
       </c>
       <c r="N25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>1.867066218837498e-05</v>
+        <v>2.097282446270245e-05</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>0.0003120667822914104</v>
+        <v>0.0003520438391953626</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>7.734988620898206e-05</v>
+        <v>8.688741563119588e-05</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>2.133789964385712e-05</v>
+        <v>2.846311891366761e-05</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>0.0001493652975069998</v>
+        <v>0.0001677825957016196</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>8.268436111994633e-05</v>
+        <v>9.437771008216103e-05</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>3.467408692126782e-05</v>
+        <v>4.044759003521187e-05</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>1.066894982192856e-05</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="W25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="Y25" s="2" t="n">
         <v>0</v>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="AB25" s="2" t="n">
         <v>0</v>
@@ -3209,19 +3209,19 @@
         <v>0</v>
       </c>
       <c r="AD25" s="2" t="n">
-        <v>0.0001813721469727855</v>
+        <v>0.0002037360090662524</v>
       </c>
       <c r="AE25" s="2" t="n">
-        <v>4.00085618322321e-05</v>
+        <v>4.793788448617703e-05</v>
       </c>
       <c r="AF25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG25" s="2" t="n">
-        <v>1.066894982192856e-05</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="AH25" s="2" t="n">
-        <v>6.134646147608921e-05</v>
+        <v>7.040876783907252e-05</v>
       </c>
       <c r="AI25" s="2" t="n">
         <v>0</v>
@@ -3234,103 +3234,103 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.004526301961953192</v>
+        <v>0.004726375798559017</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.0009388675843297132</v>
+        <v>0.001089088813170334</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>2.400513709933926e-05</v>
+        <v>3.145923669405368e-05</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.933961201030354e-05</v>
+        <v>3.595341336463278e-05</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>9.468692966961597e-05</v>
+        <v>0.0001078602400938983</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.001193588761328258</v>
+        <v>0.001394692826769713</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>5.992235560772129e-06</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>1.066894982192856e-05</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0.001425638419955204</v>
+        <v>0.00162539389585944</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>9.868778585283917e-05</v>
+        <v>0.0001303311234467938</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0</v>
+        <v>8.988353341158195e-06</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>0.0001426972038682945</v>
+        <v>0.0001692806545918127</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>6.001284274834814e-05</v>
+        <v>0.0001063621812037053</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>0.0001707031971508569</v>
+        <v>0.0002022379501760594</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0.001544330486724159</v>
+        <v>0.001776697843768936</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>2.267151837159819e-05</v>
+        <v>2.546700113328155e-05</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0.0001573670098734462</v>
+        <v>0.0001812651257133569</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>0.0002053772840721248</v>
+        <v>0.0002366933046504991</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>8.535159857542847e-05</v>
+        <v>0.0001108563578742844</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>0.0008295108486549455</v>
+        <v>0.0009437771008216104</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="Y26" s="2" t="n">
-        <v>0</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="Z26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AA26" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>5.992235560772129e-06</v>
       </c>
       <c r="AB26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="AD26" s="2" t="n">
-        <v>0.0001707031971508569</v>
+        <v>0.0001992418323956733</v>
       </c>
       <c r="AE26" s="2" t="n">
-        <v>2.267151837159819e-05</v>
+        <v>6.291847338810736e-05</v>
       </c>
       <c r="AF26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG26" s="2" t="n">
-        <v>0.0002307160398992051</v>
+        <v>0.0002606622468935877</v>
       </c>
       <c r="AH26" s="2" t="n">
-        <v>6.401369893157135e-05</v>
+        <v>8.538935674100285e-05</v>
       </c>
       <c r="AI26" s="2" t="n">
         <v>0</v>
@@ -3343,103 +3343,103 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.0009495365341516418</v>
+        <v>0.000970742160845085</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.0004734346483480798</v>
+        <v>0.0005497876127008429</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.0003774140999507228</v>
+        <v>0.0004254487248148212</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>6.268008020383029e-05</v>
+        <v>7.190682672926556e-05</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.0009095279723194097</v>
+        <v>0.001026170339782227</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>0.0006147982334886332</v>
+        <v>0.000695099325049567</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0.0001026886420360624</v>
+        <v>0.0001183466523252496</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2.800599328256247e-05</v>
+        <v>3.595341336463278e-05</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.733704346063391e-05</v>
+        <v>2.247088335289549e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>0.0006814791698756867</v>
+        <v>0.0007759945051199908</v>
       </c>
       <c r="R27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>0.0001587006286011873</v>
+        <v>0.0001782690079329708</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>3.867494310449103e-05</v>
+        <v>4.494176670579097e-05</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>1.048641223135123e-05</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>0.0003334046819352675</v>
+        <v>0.0003775108403286441</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="Y27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Z27" s="2" t="n">
-        <v>0.0001160248293134731</v>
+        <v>0.0001303311234467938</v>
       </c>
       <c r="AA27" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>8.988353341158195e-06</v>
       </c>
       <c r="AB27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AC27" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="AD27" s="2" t="n">
-        <v>0.0005321138723686869</v>
+        <v>0.000600721614967406</v>
       </c>
       <c r="AE27" s="2" t="n">
-        <v>0.0004147554243274727</v>
+        <v>0.0004718885504108052</v>
       </c>
       <c r="AF27" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="AG27" s="2" t="n">
-        <v>1.466980600515177e-05</v>
+        <v>1.947476557250942e-05</v>
       </c>
       <c r="AH27" s="2" t="n">
-        <v>2.267151837159819e-05</v>
+        <v>3.145923669405368e-05</v>
       </c>
       <c r="AI27" s="2" t="n">
         <v>0</v>
@@ -3452,25 +3452,25 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>7.068179257027671e-05</v>
+        <v>7.190682672926556e-05</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.0002200470900772765</v>
+        <v>0.0002471797168818504</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.0001053558794915445</v>
+        <v>0.0001183466523252496</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.0003960847621390978</v>
+        <v>0.0004464215492775237</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>0</v>
@@ -3479,40 +3479,40 @@
         <v>0</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>9.068607348639276e-05</v>
+        <v>0.0001018680045331262</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="M28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="O28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>0.0001213593042244374</v>
+        <v>0.000137821417897759</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0.0001440308225960355</v>
+        <v>0.0001632884190310405</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>6.668093638705349e-06</v>
+        <v>7.490294450965162e-06</v>
       </c>
       <c r="T28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>0.0003093995448359282</v>
+        <v>0.0003475496625247835</v>
       </c>
       <c r="W28" s="2" t="n">
         <v>0</v>
@@ -3536,19 +3536,19 @@
         <v>0</v>
       </c>
       <c r="AD28" s="2" t="n">
-        <v>9.335331094187489e-06</v>
+        <v>1.048641223135123e-05</v>
       </c>
       <c r="AE28" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>8.988353341158195e-06</v>
       </c>
       <c r="AF28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG28" s="2" t="n">
-        <v>0.0003880830497726513</v>
+        <v>0.0004359351370461724</v>
       </c>
       <c r="AH28" s="2" t="n">
-        <v>0.0002827271702811068</v>
+        <v>0.0003175884847209228</v>
       </c>
       <c r="AI28" s="2" t="n">
         <v>0</v>
@@ -3561,13 +3561,13 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.33361872774107e-05</v>
+        <v>1.498058890193032e-05</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.0001733704346063391</v>
+        <v>0.0001947476557250942</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>0</v>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>8.001712366446419e-06</v>
+        <v>8.988353341158195e-06</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>1.066894982192856e-05</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="K29" s="2" t="n">
         <v>0</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>2.267151837159819e-05</v>
+        <v>2.546700113328155e-05</v>
       </c>
       <c r="O29" s="2" t="n">
         <v>0</v>
@@ -3612,13 +3612,13 @@
         <v>0</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>4.00085618322321e-05</v>
+        <v>4.494176670579097e-05</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="V29" s="2" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="Y29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Z29" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="AA29" s="2" t="n">
         <v>0</v>
@@ -3670,22 +3670,22 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>8.001712366446419e-06</v>
+        <v>7.490294450965162e-06</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.002484531689781613</v>
+        <v>0.002790883712429619</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.001612345041838954</v>
+        <v>0.001811153198243376</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>0.0004801027419867852</v>
+        <v>0.0005393012004694917</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>0</v>
@@ -3694,52 +3694,52 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.0005614534843789904</v>
+        <v>0.0006306827927712666</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="L30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>0.0006414706080434547</v>
+        <v>0.0007205663261828486</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0.00125893607898757</v>
+        <v>0.001414167592342223</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>0.003085993735992836</v>
+        <v>0.003466508271906677</v>
       </c>
       <c r="Q30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0002707246017314372</v>
+        <v>0.0003041059547091856</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0.001504321924891927</v>
+        <v>0.00168981042813774</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>0.0004854372168977495</v>
+        <v>0.0005452934360302637</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.00114691210585732</v>
+        <v>0.001288330645566008</v>
       </c>
       <c r="V30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>2.400513709933926e-05</v>
+        <v>2.696506002347458e-05</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="Y30" s="2" t="n">
-        <v>0.0001293610165908838</v>
+        <v>0.0001453117123487241</v>
       </c>
       <c r="Z30" s="2" t="n">
         <v>0</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="AH30" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="AI30" s="2" t="n">
         <v>0</v>
@@ -3779,91 +3779,91 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>6.934817384253564e-05</v>
+        <v>4.793788448617703e-05</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>2.267151837159819e-05</v>
+        <v>2.546700113328155e-05</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.0001400299664128123</v>
+        <v>0.0001572961834702684</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>0.0003120667822914104</v>
+        <v>0.0003505457803051696</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>1.048641223135123e-05</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>1.066894982192856e-05</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>9.735416712509811e-05</v>
+        <v>0.0001093582989840914</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>5.992235560772129e-06</v>
       </c>
       <c r="L31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>8.988353341158195e-06</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>0.003938176103019379</v>
+        <v>0.004423767902740025</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>6.268008020383029e-05</v>
+        <v>7.190682672926556e-05</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>0.0008761875041258829</v>
+        <v>0.0009842246908568222</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>5.992235560772129e-06</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>3.334046819352675e-05</v>
+        <v>3.745147225482581e-05</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>0.0004307588490603656</v>
+        <v>0.0004838730215323495</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>0.00235650429191847</v>
+        <v>0.002647070058971088</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.004340928958797182</v>
+        <v>0.004879177805358706</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>5.992235560772129e-06</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="Y31" s="2" t="n">
-        <v>0</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="Z31" s="2" t="n">
-        <v>0.000172036815878598</v>
+        <v>0.0001932495968349012</v>
       </c>
       <c r="AA31" s="2" t="n">
-        <v>0.0008281772299272044</v>
+        <v>0.0009302945708098731</v>
       </c>
       <c r="AB31" s="2" t="n">
-        <v>3.334046819352675e-05</v>
+        <v>3.745147225482581e-05</v>
       </c>
       <c r="AC31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD31" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="AE31" s="2" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="AH31" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="AI31" s="2" t="n">
         <v>0</v>
@@ -3888,79 +3888,79 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.002607224612733792</v>
+        <v>0.002741447769053249</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>1.600342473289284e-05</v>
+        <v>3.145923669405368e-05</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>9.335331094187489e-06</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>5.992235560772129e-06</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>8.001712366446419e-06</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>2.846311891366761e-05</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>7.490294450965162e-06</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>6.668093638705349e-06</v>
+        <v>3.745147225482581e-05</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0</v>
+        <v>1.048641223135123e-05</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>0.001058893269826409</v>
+        <v>0.00119545099437404</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.066894982192856e-05</v>
+        <v>1.498058890193032e-05</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>3.467408692126782e-05</v>
+        <v>4.793788448617703e-05</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0.0001453644413237766</v>
+        <v>0.000184261243493743</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>1.466980600515177e-05</v>
+        <v>1.647864779212336e-05</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>4.667665547093745e-05</v>
+        <v>5.243206115675613e-05</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>2.800599328256247e-05</v>
+        <v>3.295729558424671e-05</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>4.000856183223209e-06</v>
+        <v>1.048641223135123e-05</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>1.600342473289284e-05</v>
+        <v>2.846311891366761e-05</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>1.066894982192856e-05</v>
+        <v>1.198447112154426e-05</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.33361872774107e-05</v>
+        <v>1.947476557250942e-05</v>
       </c>
       <c r="Y32" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="Z32" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="AA32" s="2" t="n">
         <v>0</v>
@@ -3972,19 +3972,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>0</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="AE32" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-05</v>
       </c>
       <c r="AF32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG32" s="2" t="n">
-        <v>1.733704346063391e-05</v>
+        <v>2.097282446270245e-05</v>
       </c>
       <c r="AH32" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-05</v>
       </c>
       <c r="AI32" s="2" t="n">
         <v>0</v>
@@ -3997,34 +3997,34 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.0001213593042244374</v>
+        <v>0.0001258369467762147</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.0009321994906910079</v>
+        <v>0.001048641223135123</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.267151837159819e-05</v>
+        <v>2.696506002347458e-05</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.000133361872774107</v>
+        <v>0.0001513039479094963</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>5.992235560772129e-06</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>0.0003347383006630085</v>
+        <v>0.0003775108403286441</v>
       </c>
       <c r="L33" s="2" t="n">
         <v>0</v>
@@ -4033,31 +4033,31 @@
         <v>0</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>0.0009241977783245615</v>
+        <v>0.001041150928684158</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>1.733704346063391e-05</v>
+        <v>1.947476557250942e-05</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>0.0001120239731302499</v>
+        <v>0.0001258369467762147</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0.0001693695784231159</v>
+        <v>0.0001902534790545151</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>0.0001013550233083213</v>
+        <v>0.0001138524756546705</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>0.0001186920667689552</v>
+        <v>0.0001333272412271799</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>3.334046819352675e-05</v>
+        <v>3.894953114501884e-05</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>0.000896191785041999</v>
+        <v>0.001006695574209718</v>
       </c>
       <c r="W33" s="2" t="n">
         <v>0</v>
@@ -4072,7 +4072,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="2" t="n">
-        <v>6.668093638705349e-06</v>
+        <v>7.490294450965162e-06</v>
       </c>
       <c r="AB33" s="2" t="n">
         <v>0</v>
@@ -4084,16 +4084,16 @@
         <v>0</v>
       </c>
       <c r="AE33" s="2" t="n">
-        <v>0.0004027528557778031</v>
+        <v>0.0004524137848382958</v>
       </c>
       <c r="AF33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG33" s="2" t="n">
-        <v>1.733704346063391e-05</v>
+        <v>1.947476557250942e-05</v>
       </c>
       <c r="AH33" s="2" t="n">
-        <v>0.0001506989162347409</v>
+        <v>0.0001692806545918127</v>
       </c>
       <c r="AI33" s="2" t="n">
         <v>0</v>
@@ -4106,73 +4106,73 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.001616345898022177</v>
+        <v>0.001628390013639826</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.001703031115325346</v>
+        <v>0.001939986262799977</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.0003147340197468925</v>
+        <v>0.0003535418980855557</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.0003667451501287942</v>
+        <v>0.00041496231258347</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>4.494176670579097e-06</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>0.0002693909830036961</v>
+        <v>0.0003086001313797647</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.0001293610165908838</v>
+        <v>0.0001707787134820057</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.0001466980600515177</v>
+        <v>0.0001677825957016196</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>0.001619013135477659</v>
+        <v>0.001832126022706079</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0</v>
+        <v>5.992235560772129e-06</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>0.001828391275733007</v>
+        <v>0.002061329032905612</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0.000381414956133946</v>
+        <v>0.0004419273726069445</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>0.00115891467440699</v>
+        <v>0.001303311234467938</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0.0005027742603583834</v>
+        <v>0.0005827449082850896</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001600342473289284</v>
+        <v>0.0001797670668231639</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0.0007468264875349992</v>
+        <v>0.0008404110373982912</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>0.00281660275298914</v>
+        <v>0.003165398434977877</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.0003720796250397585</v>
+        <v>0.0004299429014854003</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>5.067751165416066e-05</v>
+        <v>6.142041449791432e-05</v>
       </c>
       <c r="W34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>0</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="Y34" s="2" t="n">
         <v>0</v>
@@ -4181,28 +4181,28 @@
         <v>0</v>
       </c>
       <c r="AA34" s="2" t="n">
-        <v>0</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="AB34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AC34" s="2" t="n">
-        <v>0.000152032534962482</v>
+        <v>0.0001707787134820057</v>
       </c>
       <c r="AD34" s="2" t="n">
-        <v>5.334474910964279e-06</v>
+        <v>7.490294450965162e-06</v>
       </c>
       <c r="AE34" s="2" t="n">
-        <v>0.0002947297388307764</v>
+        <v>0.0003505457803051696</v>
       </c>
       <c r="AF34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG34" s="2" t="n">
-        <v>0</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="AH34" s="2" t="n">
-        <v>0.0001186920667689552</v>
+        <v>0.0001438136534585311</v>
       </c>
       <c r="AI34" s="2" t="n">
         <v>0</v>
@@ -4215,13 +4215,13 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>0</v>
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>0</v>
@@ -4269,10 +4269,10 @@
         <v>0</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.33361872774107e-06</v>
+        <v>1.498058890193032e-06</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>2.66723745548214e-06</v>
+        <v>2.996117780386065e-06</v>
       </c>
       <c r="V35" s="2" t="n">
         <v>0</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="2" t="n">
-        <v>2.267151837159819e-05</v>
+        <v>2.546700113328155e-05</v>
       </c>
       <c r="AA35" s="2" t="n">
         <v>0</v>
@@ -4515,106 +4515,106 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.0980182438920303</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>0.01842393043849355</v>
+        <v>0.01902982782822071</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.0003013976314947189</v>
+        <v>0.0003265765934465965</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.005982609623386322</v>
+        <v>0.006456628980526747</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.0009175290728688787</v>
+        <v>0.000882356025413052</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.001101568334578043</v>
+        <v>0.001126539441613947</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.01562600021337885</v>
+        <v>0.01616254526007032</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.0002747252747252747</v>
+        <v>0.0002876270914759015</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.001342953163341513</v>
+        <v>0.001343757817988977</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>0.01482049503894164</v>
+        <v>0.01554684351737972</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>0.007246879334257975</v>
+        <v>0.007341981121476006</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>0.004242238344180092</v>
+        <v>0.00436683839402215</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>0.003924837298623706</v>
+        <v>0.004037265685039346</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>0.00725621465912728</v>
+        <v>0.007407895663272567</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>0.002397844873573029</v>
+        <v>0.002470297259602925</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0.01725568121199189</v>
+        <v>0.01771003893452139</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001466979622319428</v>
+        <v>0.0001408174302017434</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>0.0009562039901845727</v>
+        <v>0.0009572589138182346</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>0.002807265549983996</v>
+        <v>0.002925706821106436</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.005881254667662435</v>
+        <v>0.006052153383138761</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>0.00482102848607703</v>
+        <v>0.004927111999292917</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>8.935239517763789e-05</v>
+        <v>8.688735055001191e-05</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.003327376506988158</v>
+        <v>0.003421563942348745</v>
       </c>
       <c r="Y2" s="2" t="n">
-        <v>0.0003934172623493012</v>
+        <v>0.000376012499794017</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>0.0001386962552011096</v>
+        <v>0.0001378213146655361</v>
       </c>
       <c r="AA2" s="2" t="n">
-        <v>0.0001373626373626374</v>
+        <v>0.0001288329680569142</v>
       </c>
       <c r="AB2" s="2" t="n">
-        <v>2.400512109249973e-05</v>
+        <v>2.696503982586576e-05</v>
       </c>
       <c r="AC2" s="2" t="n">
-        <v>2.667235676944415e-05</v>
+        <v>2.24708665215548e-05</v>
       </c>
       <c r="AD2" s="2" t="n">
-        <v>0.00405419822895551</v>
+        <v>0.004188569519617815</v>
       </c>
       <c r="AE2" s="2" t="n">
-        <v>0.008665848714392403</v>
+        <v>0.008841536947347763</v>
       </c>
       <c r="AF2" s="2" t="n">
-        <v>2.000426757708311e-05</v>
+        <v>1.048640437672558e-05</v>
       </c>
       <c r="AG2" s="2" t="n">
-        <v>0.002076442974501227</v>
+        <v>0.002127242030707188</v>
       </c>
       <c r="AH2" s="2" t="n">
-        <v>0.008973914435079484</v>
+        <v>0.009301440682155585</v>
       </c>
       <c r="AI2" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
     </row>
     <row r="3">
@@ -4624,103 +4624,103 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.004664995198975781</v>
+        <v>0.00446121603341268</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>1.86706497386109e-05</v>
+        <v>0.0001528018923465727</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.0005321135175504108</v>
+        <v>0.0005977250494733578</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.004939720473701057</v>
+        <v>0.005559292377432658</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.0008575162701376294</v>
+        <v>0.0009722394914992711</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.003556758775205377</v>
+        <v>0.003999814240836755</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.0001266936946548597</v>
+        <v>0.0002127242030707188</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.0008641843593299904</v>
+        <v>0.0009707414337311675</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.004380934599381201</v>
+        <v>0.004930108114829124</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>0.0003254027525872186</v>
+        <v>0.0004209542328371267</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>0</v>
+        <v>4.943590634742057e-05</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0.006818788008108397</v>
+        <v>0.007682040234835536</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>0.007036167715779367</v>
+        <v>0.007930717824340742</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>0.002501867064973861</v>
+        <v>0.002849305874933149</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>0.00909927451189587</v>
+        <v>0.01022873844061175</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2.400512109249973e-05</v>
+        <v>9.737375492673749e-05</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.001288274831964152</v>
+        <v>0.001447123803988129</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>0.006393363917635763</v>
+        <v>0.007196669517969952</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>0.003085991678224688</v>
+        <v>0.003485980426377202</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.004854368932038835</v>
+        <v>0.005478397257955061</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>6.001280273124933e-05</v>
+        <v>9.437763939053018e-05</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.0001453643443934706</v>
+        <v>0.0001632882967232982</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.0004294249439880508</v>
+        <v>0.0004988532367785167</v>
       </c>
       <c r="Y3" s="2" t="n">
-        <v>0.0006654753013976315</v>
+        <v>0.0007550211151242414</v>
       </c>
       <c r="Z3" s="2" t="n">
-        <v>0.002181798783740531</v>
+        <v>0.002450822508617577</v>
       </c>
       <c r="AA3" s="2" t="n">
-        <v>0.0007548276965752694</v>
+        <v>0.0008479006967466679</v>
       </c>
       <c r="AB3" s="2" t="n">
-        <v>0.000257388242825136</v>
+        <v>0.0002891251492440052</v>
       </c>
       <c r="AC3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD3" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>2.546698205776211e-05</v>
       </c>
       <c r="AE3" s="2" t="n">
-        <v>0</v>
+        <v>7.789900394138999e-05</v>
       </c>
       <c r="AF3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG3" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>1.94747509853475e-05</v>
       </c>
       <c r="AH3" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>5.093396411552422e-05</v>
       </c>
       <c r="AI3" s="2" t="n">
         <v>0</v>
@@ -4733,73 +4733,73 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.005205110423557025</v>
+        <v>0.005345070116593837</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.0005214445748426331</v>
+        <v>0.0006606434757337113</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1.066894270777766e-05</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>1.048640437672558e-05</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>8.988346608621922e-06</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.533873893097194e-05</v>
+        <v>2.996115536207307e-05</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0008308439133681852</v>
+        <v>0.0009872200691803078</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>9.335324869305452e-06</v>
+        <v>1.048640437672558e-05</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>8.801877733916569e-05</v>
+        <v>0.0001003698704629448</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0.0004254240904726341</v>
+        <v>0.0005063435256190349</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>9.335324869305452e-06</v>
+        <v>8.688735055001191e-05</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.348251991293288e-05</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>3.200682812333298e-05</v>
+        <v>5.093396411552422e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>4.934386002347167e-05</v>
+        <v>8.38912350138046e-05</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>9.335324869305452e-06</v>
+        <v>2.24708665215548e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.002983303104662328</v>
+        <v>0.003408081422435812</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>6.668089192361037e-06</v>
+        <v>7.490288840518268e-06</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>5.33447135388883e-05</v>
+        <v>6.44164840284571e-05</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>6.534727408513817e-05</v>
+        <v>7.939706170949365e-05</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>2.400512109249973e-05</v>
+        <v>3.745144420259134e-05</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.0004921049823962446</v>
+        <v>0.0005572774897345591</v>
       </c>
       <c r="W4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0</v>
+        <v>8.988346608621922e-06</v>
       </c>
       <c r="Y4" s="2" t="n">
         <v>0</v>
@@ -4817,22 +4817,22 @@
         <v>0</v>
       </c>
       <c r="AD4" s="2" t="n">
-        <v>0.0001787047903552758</v>
+        <v>0.0002157203186069261</v>
       </c>
       <c r="AE4" s="2" t="n">
-        <v>2.800597460791635e-05</v>
+        <v>5.992231072414615e-05</v>
       </c>
       <c r="AF4" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>5.992231072414614e-06</v>
       </c>
       <c r="AG4" s="2" t="n">
-        <v>0.0002773925104022191</v>
+        <v>0.0003220824201422855</v>
       </c>
       <c r="AH4" s="2" t="n">
-        <v>2.133788541555532e-05</v>
+        <v>6.591454179656076e-05</v>
       </c>
       <c r="AI4" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4842,82 +4842,82 @@
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.012836071695295</v>
+        <v>0.01330724715406476</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.002377840605995946</v>
+        <v>0.002825336950643491</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.933959244638856e-05</v>
+        <v>3.295727089828038e-05</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>7.33489811159714e-05</v>
+        <v>0.0001048640437672557</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.533873893097194e-05</v>
+        <v>4.19456175069023e-05</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.0005907927024431878</v>
+        <v>0.0006756240534147478</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.001967086311746506</v>
+        <v>0.002299518674039108</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>7.490288840518268e-06</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0008828550090686013</v>
+        <v>0.001002200646861344</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>0.001558999253174011</v>
+        <v>0.001860587747984738</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>6.142036849224979e-05</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>0.0002680571855329137</v>
+        <v>0.0003280746512147001</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>0.0001707030833244426</v>
+        <v>0.0002307008962879627</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>3.334044596180519e-05</v>
+        <v>8.38912350138046e-05</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.067321028486077e-05</v>
+        <v>5.692619518793884e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>0.005257121519257442</v>
+        <v>0.006049157267602553</v>
       </c>
       <c r="R5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>0.0003760802304491625</v>
+        <v>0.0004284445216776449</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>0.001198922436786515</v>
+        <v>0.001361734511206221</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.00232582951029553</v>
+        <v>0.002662048653920192</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>0.0004334257975034674</v>
+        <v>0.0005228221610681751</v>
       </c>
       <c r="W5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.0001907073509015257</v>
+        <v>0.0002456814739689992</v>
       </c>
       <c r="Y5" s="2" t="n">
-        <v>7.20153632774992e-05</v>
+        <v>8.538929278190826e-05</v>
       </c>
       <c r="Z5" s="2" t="n">
-        <v>8.001707030833245e-06</v>
+        <v>8.988346608621922e-06</v>
       </c>
       <c r="AA5" s="2" t="n">
-        <v>2.667235676944415e-05</v>
+        <v>3.145921313017673e-05</v>
       </c>
       <c r="AB5" s="2" t="n">
         <v>0</v>
@@ -4926,19 +4926,19 @@
         <v>0</v>
       </c>
       <c r="AD5" s="2" t="n">
-        <v>0.0008588498879761016</v>
+        <v>0.001018679282310484</v>
       </c>
       <c r="AE5" s="2" t="n">
-        <v>4.400938866958284e-05</v>
+        <v>0.0001183465636801886</v>
       </c>
       <c r="AF5" s="2" t="n">
-        <v>2.133788541555532e-05</v>
+        <v>2.546698205776211e-05</v>
       </c>
       <c r="AG5" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>1.797669321724384e-05</v>
       </c>
       <c r="AH5" s="2" t="n">
-        <v>0.0003053984850101355</v>
+        <v>0.000423950348373334</v>
       </c>
       <c r="AI5" s="2" t="n">
         <v>0</v>
@@ -4951,82 +4951,82 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.003264696468579964</v>
+        <v>0.003400591133595294</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.0004654326256268004</v>
+        <v>0.0005587755475026629</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>5.992231072414614e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2.533873893097194e-05</v>
+        <v>4.19456175069023e-05</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.600341406166649e-05</v>
+        <v>2.696503982586576e-05</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.933959244638856e-05</v>
+        <v>3.295727089828038e-05</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.001928411394430812</v>
+        <v>0.002191658514735645</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.0002160460898324976</v>
+        <v>0.0002441834162008956</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0.0007921689960524912</v>
+        <v>0.0009153132963113323</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0</v>
+        <v>1.647863544914019e-05</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>8.935239517763789e-05</v>
+        <v>0.0001033659859991521</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1.86706497386109e-05</v>
+        <v>2.996115536207307e-05</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>0.0005014403072655499</v>
+        <v>0.0005677638941112847</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0.004122212738717593</v>
+        <v>0.004655963543266155</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>0.0001893737330630535</v>
+        <v>0.0002157203186069261</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>8.001707030833245e-06</v>
+        <v>1.498057768103654e-05</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>2.667235676944415e-05</v>
+        <v>4.494173304310961e-05</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>0.0008028379387602689</v>
+        <v>0.0009123171807751251</v>
       </c>
       <c r="W6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="Y6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Z6" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="AA6" s="2" t="n">
-        <v>0</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="AB6" s="2" t="n">
         <v>0</v>
@@ -5035,19 +5035,19 @@
         <v>0</v>
       </c>
       <c r="AD6" s="2" t="n">
-        <v>9.06860130161101e-05</v>
+        <v>0.0001108562748396704</v>
       </c>
       <c r="AE6" s="2" t="n">
-        <v>2.000426757708311e-05</v>
+        <v>3.295727089828038e-05</v>
       </c>
       <c r="AF6" s="2" t="n">
-        <v>1.200256054624987e-05</v>
+        <v>1.348251991293288e-05</v>
       </c>
       <c r="AG6" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>7.490288840518268e-06</v>
       </c>
       <c r="AH6" s="2" t="n">
-        <v>8.801877733916569e-05</v>
+        <v>0.0001138523903758777</v>
       </c>
       <c r="AI6" s="2" t="n">
         <v>0</v>
@@ -5060,103 +5060,103 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.005737223941107436</v>
+        <v>0.005938300992762883</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.001522991571535261</v>
+        <v>0.00177519845520283</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>1.466979622319428e-05</v>
+        <v>1.647863544914019e-05</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>0.0002560546249866638</v>
+        <v>0.0002966154380845234</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.0008281766776912408</v>
+        <v>0.0009377841628328871</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0.0001226928411394431</v>
+        <v>0.0001453116035060544</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.002509868772004694</v>
+        <v>0.0028702786836866</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.0005707884348661047</v>
+        <v>0.0006426667825164674</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.000874853302037768</v>
+        <v>0.0009887181269484114</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.00129894377467193</v>
+        <v>0.001514536403552794</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.0001466979622319428</v>
+        <v>0.0001917513943172677</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.000853515416622e-05</v>
+        <v>5.542813741983518e-05</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>8.935239517763789e-05</v>
+        <v>0.000112354332607774</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>0</v>
+        <v>3.295727089828038e-05</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>0.0002107116184786088</v>
+        <v>0.0002411873006646882</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>0.004368932038834952</v>
+        <v>0.004966061501263612</v>
       </c>
       <c r="R7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>0.0003907500266723567</v>
+        <v>0.0004389309260543705</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>0.0001266936946548597</v>
+        <v>0.0001542999501146763</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>9.335324869305452e-05</v>
+        <v>0.0001273349102888106</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>0.001713698922436787</v>
+        <v>0.001942980925230439</v>
       </c>
       <c r="W7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0</v>
+        <v>2.396892428965846e-05</v>
       </c>
       <c r="Y7" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>1.048640437672558e-05</v>
       </c>
       <c r="Z7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AA7" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="AB7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AC7" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="AD7" s="2" t="n">
-        <v>8.668515950069348e-05</v>
+        <v>0.0001138523903758777</v>
       </c>
       <c r="AE7" s="2" t="n">
-        <v>2.533873893097194e-05</v>
+        <v>5.243202188362787e-05</v>
       </c>
       <c r="AF7" s="2" t="n">
-        <v>6.801450976208258e-05</v>
+        <v>7.640094617328634e-05</v>
       </c>
       <c r="AG7" s="2" t="n">
-        <v>0.0001827056438706924</v>
+        <v>0.0002067319719983042</v>
       </c>
       <c r="AH7" s="2" t="n">
-        <v>0.0003440734023258295</v>
+        <v>0.000419456175069023</v>
       </c>
       <c r="AI7" s="2" t="n">
         <v>0</v>
@@ -5169,103 +5169,103 @@
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.003009975461431772</v>
+        <v>0.003114462099887496</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.001672356769444148</v>
+        <v>0.001917513943172677</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.001900405419822896</v>
+        <v>0.002134732319547706</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.003867491731569402</v>
+        <v>0.004353355874109217</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.0004200896191187453</v>
+        <v>0.0004763823702569618</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>0.00410220847114051</v>
+        <v>0.004611021810223046</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.001309612717379708</v>
+        <v>0.001519030576857105</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.002452523204950389</v>
+        <v>0.002754928235542619</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.0006841459511362424</v>
+        <v>0.0007714997505733816</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.002208471140509976</v>
+        <v>0.002504752588269309</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>1.94747509853475e-05</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>0.0006441374159820762</v>
+        <v>0.0007235619019940647</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>0.00424757281553398</v>
+        <v>0.004786294569091173</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0.00314733809879441</v>
+        <v>0.003548898852637556</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>0.00778166008748533</v>
+        <v>0.008744163192421026</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0.001628347380774565</v>
+        <v>0.001854595516912323</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.00217513069454817</v>
+        <v>0.002444830277545163</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>0.005275792168996053</v>
+        <v>0.005932308761690468</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>0.003159340659340659</v>
+        <v>0.00355489108370997</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.004586311746505921</v>
+        <v>0.005156314837812776</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>0.0003013976314947189</v>
+        <v>0.000346051344431944</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.0001106902805931932</v>
+        <v>0.0001243387947526033</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>7.601621679291583e-05</v>
+        <v>8.988346608621921e-05</v>
       </c>
       <c r="Y8" s="2" t="n">
-        <v>0.0005281126640349942</v>
+        <v>0.0005947289339371505</v>
       </c>
       <c r="Z8" s="2" t="n">
-        <v>0.003434065934065934</v>
+        <v>0.003857498752866908</v>
       </c>
       <c r="AA8" s="2" t="n">
-        <v>0.001460311533127067</v>
+        <v>0.001640373256073501</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>0.001134908780539848</v>
+        <v>0.001274847160656209</v>
       </c>
       <c r="AC8" s="2" t="n">
-        <v>7.601621679291583e-05</v>
+        <v>8.688735055001191e-05</v>
       </c>
       <c r="AD8" s="2" t="n">
-        <v>0.00109356662754721</v>
+        <v>0.0012299054276131</v>
       </c>
       <c r="AE8" s="2" t="n">
-        <v>0.0004934386002347168</v>
+        <v>0.0005662658363431811</v>
       </c>
       <c r="AF8" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="AG8" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>1.048640437672558e-05</v>
       </c>
       <c r="AH8" s="2" t="n">
-        <v>0.0002867278352715246</v>
+        <v>0.0003340668822871148</v>
       </c>
       <c r="AI8" s="2" t="n">
         <v>0</v>
@@ -5278,67 +5278,67 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.001236263736263736</v>
+        <v>0.001321286951467423</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.0008895230982609623</v>
+        <v>0.001006694820165655</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>1.86706497386109e-05</v>
+        <v>2.097280875345115e-05</v>
       </c>
       <c r="E9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>0.0003654112877413848</v>
+        <v>0.0004104678284604011</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.0005707884348661047</v>
+        <v>0.0006426667825164674</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>7.33489811159714e-05</v>
+        <v>8.239317724570095e-05</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.0002440520644404139</v>
+        <v>0.0002741445715629686</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>1.348251991293288e-05</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>0.0001453643443934706</v>
+        <v>0.0001677824700276092</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>0.0002480529179558306</v>
+        <v>0.0002801368026353832</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>0</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>7.490288840518268e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>0.001558999253174011</v>
+        <v>0.001764712050826104</v>
       </c>
       <c r="R9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>0.0003107329563640243</v>
+        <v>0.0003490474599681513</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>9.335324869305452e-06</v>
+        <v>1.348251991293288e-05</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>0.000701482983036381</v>
+        <v>0.000799962848167351</v>
       </c>
       <c r="W9" s="2" t="n">
         <v>0</v>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="Z9" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="AA9" s="2" t="n">
         <v>0</v>
@@ -5362,19 +5362,19 @@
         <v>0</v>
       </c>
       <c r="AD9" s="2" t="n">
-        <v>1.200256054624987e-05</v>
+        <v>1.348251991293288e-05</v>
       </c>
       <c r="AE9" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="AF9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG9" s="2" t="n">
-        <v>1.333617838472207e-05</v>
+        <v>1.498057768103654e-05</v>
       </c>
       <c r="AH9" s="2" t="n">
-        <v>0.0001120238984316654</v>
+        <v>0.0001258368525207069</v>
       </c>
       <c r="AI9" s="2" t="n">
         <v>0</v>
@@ -5387,82 +5387,82 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.004143550624133148</v>
+        <v>0.004347363643036803</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.003935506241331484</v>
+        <v>0.004459717975644577</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>6.668089192361037e-06</v>
+        <v>7.490288840518268e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.000392083644510829</v>
+        <v>0.0004479192726629924</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.333617838472207e-05</v>
+        <v>1.647863544914019e-05</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0.0008921903339379068</v>
+        <v>0.001030663744455314</v>
       </c>
       <c r="I10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>4.943590634742057e-05</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.002255147764856503</v>
+        <v>0.002554188494616729</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>8.001707030833245e-06</v>
+        <v>1.498057768103654e-05</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>3.334044596180519e-05</v>
+        <v>4.494173304310961e-05</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.534727408513817e-05</v>
+        <v>7.789900394138999e-05</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1.200256054624987e-05</v>
+        <v>2.396892428965846e-05</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.067321028486077e-05</v>
+        <v>3.745144420259134e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0.001209591379494292</v>
+        <v>0.001391695666568294</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>1.200256054624987e-05</v>
+        <v>1.348251991293288e-05</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>6.668089192361037e-06</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>2.533873893097194e-05</v>
+        <v>4.643979081121326e-05</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>0.0002227141790248586</v>
+        <v>0.0002651562249543467</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="Y10" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="Z10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AA10" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>5.992231072414614e-06</v>
       </c>
       <c r="AB10" s="2" t="n">
         <v>0</v>
@@ -5471,19 +5471,19 @@
         <v>0</v>
       </c>
       <c r="AD10" s="2" t="n">
-        <v>6.534727408513817e-05</v>
+        <v>8.688735055001191e-05</v>
       </c>
       <c r="AE10" s="2" t="n">
-        <v>0.0001520324335858317</v>
+        <v>0.0001917513943172677</v>
       </c>
       <c r="AF10" s="2" t="n">
-        <v>2.800597460791635e-05</v>
+        <v>3.145921313017673e-05</v>
       </c>
       <c r="AG10" s="2" t="n">
-        <v>2.000426757708311e-05</v>
+        <v>2.696503982586576e-05</v>
       </c>
       <c r="AH10" s="2" t="n">
-        <v>0.0003547423450336072</v>
+        <v>0.0004149620017647121</v>
       </c>
       <c r="AI10" s="2" t="n">
         <v>0</v>
@@ -5496,103 +5496,103 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.009029926384295317</v>
+        <v>0.009262491180184891</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.0001573669049397205</v>
+        <v>0.0002711484560267613</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.0006147978235356876</v>
+        <v>0.0006906046310957843</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.002263149471887336</v>
+        <v>0.002552690436848626</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.0009575376080230449</v>
+        <v>0.001092084112947564</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>0.002003093993385256</v>
+        <v>0.002268059460908931</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>0.0001600341406166649</v>
+        <v>0.0002696503982586576</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.0009281980155766564</v>
+        <v>0.001050138495440661</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.0006334684732742985</v>
+        <v>0.0007175696709216501</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.0008721860663608237</v>
+        <v>0.001059126842049283</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>6.44164840284571e-05</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>0.002828603435399552</v>
+        <v>0.003216330028118544</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>0.007729648991784914</v>
+        <v>0.008709707863754641</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0.002455190440627334</v>
+        <v>0.002810356372962454</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>0.007277552544542836</v>
+        <v>0.008197372107063193</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>0.0008255094420142964</v>
+        <v>0.001003698704629448</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.001200256054624987</v>
+        <v>0.001349750049061392</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>0.00431958817881148</v>
+        <v>0.004859699399728253</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>0.001349621252533874</v>
+        <v>0.00152951698123383</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.003728795476368292</v>
+        <v>0.004235009310429028</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>7.868345246986024e-05</v>
+        <v>0.0001258368525207069</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.000456097300757495</v>
+        <v>0.0005123357566914496</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.0001973754400938867</v>
+        <v>0.0002396892428965846</v>
       </c>
       <c r="Y11" s="2" t="n">
-        <v>0.0005734556705430492</v>
+        <v>0.0006501570713569857</v>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>0.001560332871012483</v>
+        <v>0.001754225646449378</v>
       </c>
       <c r="AA11" s="2" t="n">
-        <v>0.001034887442654433</v>
+        <v>0.001162492828048435</v>
       </c>
       <c r="AB11" s="2" t="n">
-        <v>0.0005907927024431878</v>
+        <v>0.0006636395912699186</v>
       </c>
       <c r="AC11" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="AD11" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>2.846309759396942e-05</v>
       </c>
       <c r="AE11" s="2" t="n">
-        <v>2.400512109249973e-05</v>
+        <v>9.138152385432287e-05</v>
       </c>
       <c r="AF11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG11" s="2" t="n">
-        <v>0.0001040221914008322</v>
+        <v>0.0001273349102888106</v>
       </c>
       <c r="AH11" s="2" t="n">
-        <v>1.466979622319428e-05</v>
+        <v>6.591454179656076e-05</v>
       </c>
       <c r="AI11" s="2" t="n">
         <v>0</v>
@@ -5605,10 +5605,10 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>3.867491731569402e-05</v>
+        <v>2.396892428965846e-05</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.0007614957857676304</v>
+        <v>0.0008553909855871862</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -5623,19 +5623,19 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0.001864397738184146</v>
+        <v>0.002094284759808908</v>
       </c>
       <c r="I12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.001370959137949429</v>
+        <v>0.001540003385610556</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0</v>
+        <v>5.992231072414614e-06</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>0</v>
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0.003302037768057185</v>
+        <v>0.003712187149360854</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
@@ -5659,13 +5659,13 @@
         <v>0</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="U12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>9.468686653152673e-05</v>
+        <v>0.0001063621015353594</v>
       </c>
       <c r="W12" s="2" t="n">
         <v>0</v>
@@ -5689,19 +5689,19 @@
         <v>0</v>
       </c>
       <c r="AD12" s="2" t="n">
-        <v>0.001329616984956791</v>
+        <v>0.001493563594799343</v>
       </c>
       <c r="AE12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AF12" s="2" t="n">
-        <v>2.933959244638856e-05</v>
+        <v>3.295727089828038e-05</v>
       </c>
       <c r="AG12" s="2" t="n">
-        <v>1.86706497386109e-05</v>
+        <v>2.696503982586576e-05</v>
       </c>
       <c r="AH12" s="2" t="n">
-        <v>4.000853515416622e-05</v>
+        <v>4.643979081121326e-05</v>
       </c>
       <c r="AI12" s="2" t="n">
         <v>0</v>
@@ -5714,103 +5714,103 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.009406006614744479</v>
+        <v>0.009737375492673749</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.00424090472634162</v>
+        <v>0.004870185804104978</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.0001040221914008322</v>
+        <v>0.0001183465636801886</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>0.0002027099114477755</v>
+        <v>0.0002531717628095174</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.0001040221914008322</v>
+        <v>0.0001243387947526033</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>0.0001907073509015257</v>
+        <v>0.0002202144919112371</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0.001176250933532487</v>
+        <v>0.001405178186481227</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.0001400298730395818</v>
+        <v>0.0001587941234189873</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.0003454070201643017</v>
+        <v>0.0003999814240836755</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>0.002332497599487891</v>
+        <v>0.002721970964644339</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>4.667662434652726e-05</v>
+        <v>0.0001108562748396704</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.134215299263843e-05</v>
+        <v>6.142036849224979e-05</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>0.0002720580390483303</v>
+        <v>0.0003385610555914257</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>7.601621679291583e-05</v>
+        <v>0.0001303310258250179</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>0.0003440734023258295</v>
+        <v>0.0003984833663155719</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0.001748372986237064</v>
+        <v>0.002032864391316658</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>5.601194921583271e-05</v>
+        <v>6.291842626035345e-05</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>0.0006894804224901312</v>
+        <v>0.0007804880971820035</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>0.004391603542088979</v>
+        <v>0.004945088692510161</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0004734343326576337</v>
+        <v>0.0005527833164302482</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>0.0006454710338205484</v>
+        <v>0.0007685036350371743</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>7.490288840518268e-06</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-05</v>
       </c>
       <c r="Y13" s="2" t="n">
-        <v>2.533873893097194e-05</v>
+        <v>2.846309759396942e-05</v>
       </c>
       <c r="Z13" s="2" t="n">
-        <v>0.0003227355169102742</v>
+        <v>0.0003685222109534988</v>
       </c>
       <c r="AA13" s="2" t="n">
-        <v>0.0003587431985490238</v>
+        <v>0.0004029775396198828</v>
       </c>
       <c r="AB13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AC13" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="AD13" s="2" t="n">
-        <v>0.000186706497386109</v>
+        <v>0.000229202838519859</v>
       </c>
       <c r="AE13" s="2" t="n">
-        <v>0.0008641843593299904</v>
+        <v>0.001024671513382899</v>
       </c>
       <c r="AF13" s="2" t="n">
-        <v>8.268430598527685e-05</v>
+        <v>9.287958162242652e-05</v>
       </c>
       <c r="AG13" s="2" t="n">
-        <v>3.067321028486077e-05</v>
+        <v>4.793784857931691e-05</v>
       </c>
       <c r="AH13" s="2" t="n">
-        <v>0.0001226928411394431</v>
+        <v>0.0001962455676215786</v>
       </c>
       <c r="AI13" s="2" t="n">
         <v>0</v>
@@ -5823,82 +5823,82 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.00275525445428358</v>
+        <v>0.002808858315194351</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.00903792809132615</v>
+        <v>0.01019578116971347</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.0006201322948895764</v>
+        <v>0.0006980949199363026</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>0.0006454710338205484</v>
+        <v>0.000731052190834583</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.00150432092179665</v>
+        <v>0.001694303335725232</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>0.0006654753013976315</v>
+        <v>0.0007520249995880341</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0.004143550624133148</v>
+        <v>0.004681430525323917</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>2.000426757708311e-05</v>
+        <v>2.24708665215548e-05</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.0001773711725168036</v>
+        <v>0.0002022377986939932</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0.003722127387175931</v>
+        <v>0.004199055923994541</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>3.467406380027739e-05</v>
+        <v>4.943590634742057e-05</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>0.0006548063586898538</v>
+        <v>0.0007400405374432049</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>0.00150432092179665</v>
+        <v>0.001697299451261439</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0.0001840392617091646</v>
+        <v>0.0002321989540560663</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>1.348251991293288e-05</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0.006556065293929372</v>
+        <v>0.007394413143359634</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.000585458231089299</v>
+        <v>0.0006606434757337113</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>0.0001827056438706924</v>
+        <v>0.0002112261453026152</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>0.002829937053238024</v>
+        <v>0.003186368872756471</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.0001773711725168036</v>
+        <v>0.0002097280875345115</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>0.001006881468046517</v>
+        <v>0.001143018077063088</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>3.067321028486077e-05</v>
+        <v>3.745144420259134e-05</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>7.20153632774992e-05</v>
+        <v>8.538929278190826e-05</v>
       </c>
       <c r="Y14" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="Z14" s="2" t="n">
-        <v>3.334044596180519e-05</v>
+        <v>3.745144420259134e-05</v>
       </c>
       <c r="AA14" s="2" t="n">
-        <v>0.0004974394537501334</v>
+        <v>0.0005587755475026629</v>
       </c>
       <c r="AB14" s="2" t="n">
         <v>0</v>
@@ -5907,19 +5907,19 @@
         <v>0</v>
       </c>
       <c r="AD14" s="2" t="n">
-        <v>0.001341619545503041</v>
+        <v>0.001510042230248483</v>
       </c>
       <c r="AE14" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.348251991293288e-05</v>
       </c>
       <c r="AF14" s="2" t="n">
-        <v>0.0001000213378854156</v>
+        <v>0.000112354332607774</v>
       </c>
       <c r="AG14" s="2" t="n">
-        <v>3.867491731569402e-05</v>
+        <v>4.344367527500595e-05</v>
       </c>
       <c r="AH14" s="2" t="n">
-        <v>0.0006734770084284648</v>
+        <v>0.0007849822704863145</v>
       </c>
       <c r="AI14" s="2" t="n">
         <v>0</v>
@@ -5932,82 +5932,82 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.005074415875386749</v>
+        <v>0.005262676939348135</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.002432518937373306</v>
+        <v>0.002777399102064174</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>1.73370319001387e-05</v>
+        <v>2.097280875345115e-05</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>8.135068814680465e-05</v>
+        <v>9.737375492673749e-05</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>6.668089192361037e-06</v>
+        <v>8.988346608621922e-06</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>5.33447135388883e-05</v>
+        <v>6.142036849224979e-05</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0.003856822788861624</v>
+        <v>0.004372830625094565</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.0004107542942494399</v>
+        <v>0.000462899850344029</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>0.002433852555211779</v>
+        <v>0.002769908813223656</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>7.468259895444362e-05</v>
+        <v>0.0001153504481439813</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>9.335324869305452e-06</v>
+        <v>3.145921313017673e-05</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>3.60076816387496e-05</v>
+        <v>5.393007965173153e-05</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>8.801877733916569e-05</v>
+        <v>0.0001153504481439813</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>0</v>
+        <v>5.992231072414614e-06</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0.004468953376720367</v>
+        <v>0.005112871162537769</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>0.0002813933639176358</v>
+        <v>0.0003235804779103892</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>0.0008708524485223514</v>
+        <v>0.0009857220114122042</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>7.468259895444362e-05</v>
+        <v>0.0001033659859991521</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>0.001062893417262349</v>
+        <v>0.001216422907700167</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>1.200256054624987e-05</v>
+        <v>1.348251991293288e-05</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.0001053558092393044</v>
+        <v>0.0001213426792163959</v>
       </c>
       <c r="Y15" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>5.992231072414614e-06</v>
       </c>
       <c r="Z15" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="AA15" s="2" t="n">
-        <v>8.801877733916569e-05</v>
+        <v>0.0001018679282310484</v>
       </c>
       <c r="AB15" s="2" t="n">
         <v>0</v>
@@ -6016,19 +6016,19 @@
         <v>0</v>
       </c>
       <c r="AD15" s="2" t="n">
-        <v>0.0009962125253387389</v>
+        <v>0.001129535557150155</v>
       </c>
       <c r="AE15" s="2" t="n">
-        <v>0.0002107116184786088</v>
+        <v>0.0002606620516500357</v>
       </c>
       <c r="AF15" s="2" t="n">
-        <v>5.867918489277713e-05</v>
+        <v>6.591454179656076e-05</v>
       </c>
       <c r="AG15" s="2" t="n">
-        <v>5.867918489277713e-05</v>
+        <v>6.741259956466441e-05</v>
       </c>
       <c r="AH15" s="2" t="n">
-        <v>0.0004600981542729115</v>
+        <v>0.0005348066232130043</v>
       </c>
       <c r="AI15" s="2" t="n">
         <v>0</v>
@@ -6041,103 +6041,103 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.01257334898111597</v>
+        <v>0.01298965890722678</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.00421689960524912</v>
+        <v>0.004922617825988605</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.0002707244212098581</v>
+        <v>0.0003041057269250417</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>0.0009508695188306838</v>
+        <v>0.001084593824107045</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0.0001640349941320815</v>
+        <v>0.0001992416831577859</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>0.001616344820228315</v>
+        <v>0.001826132419318354</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0.006203990184572709</v>
+        <v>0.007084315185362178</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.0008415128560759628</v>
+        <v>0.0009467725094415091</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.001465646004480956</v>
+        <v>0.001655353833754537</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0.002743251893737331</v>
+        <v>0.003153411601858191</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.0003040648671716633</v>
+        <v>0.000380506673098328</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0.0005307798997119385</v>
+        <v>0.0006336784359078455</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>0.0002707244212098581</v>
+        <v>0.0003385610555914257</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0.001200256054624987</v>
+        <v>0.001396189839872605</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>0.002276485650272058</v>
+        <v>0.002572165187833973</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0.00555851915075216</v>
+        <v>0.006429663940700881</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>9.335324869305452e-05</v>
+        <v>0.0001063621015353594</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>0.0009188626907073509</v>
+        <v>0.001041150148832039</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>0.001181585404886376</v>
+        <v>0.001354244222365703</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0009495359009922117</v>
+        <v>0.001120547210541533</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>0.0002773925104022191</v>
+        <v>0.0003520435755043586</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.0001266936946548597</v>
+        <v>0.0001707785855638165</v>
       </c>
       <c r="Y16" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="Z16" s="2" t="n">
-        <v>0.0009868772004694335</v>
+        <v>0.001108562748396704</v>
       </c>
       <c r="AA16" s="2" t="n">
-        <v>0.0001827056438706924</v>
+        <v>0.0002052339142302006</v>
       </c>
       <c r="AB16" s="2" t="n">
-        <v>3.467406380027739e-05</v>
+        <v>3.894950197069499e-05</v>
       </c>
       <c r="AC16" s="2" t="n">
-        <v>1.333617838472207e-05</v>
+        <v>1.647863544914019e-05</v>
       </c>
       <c r="AD16" s="2" t="n">
-        <v>0.0001120238984316654</v>
+        <v>0.0001602921811870909</v>
       </c>
       <c r="AE16" s="2" t="n">
-        <v>0.001278939507094847</v>
+        <v>0.001508544172480379</v>
       </c>
       <c r="AF16" s="2" t="n">
-        <v>9.335324869305452e-05</v>
+        <v>0.000112354332607774</v>
       </c>
       <c r="AG16" s="2" t="n">
-        <v>6.401365624666596e-05</v>
+        <v>8.988346608621921e-05</v>
       </c>
       <c r="AH16" s="2" t="n">
-        <v>0.0004294249439880508</v>
+        <v>0.0005333085654449007</v>
       </c>
       <c r="AI16" s="2" t="n">
         <v>0</v>
@@ -6150,103 +6150,103 @@
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.009387335965005869</v>
+        <v>0.00966846483534098</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>3.867491731569402e-05</v>
+        <v>0.0001572960656508836</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.001828390056545396</v>
+        <v>0.00205833137337442</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>0.005521177851274939</v>
+        <v>0.006231920315311199</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0.005275792168996053</v>
+        <v>0.005932308761690468</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>0.002763256161314414</v>
+        <v>0.003106971811046977</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0.0003080657206870799</v>
+        <v>0.0004449231571267851</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.000116024751947082</v>
+        <v>0.0001318290835931215</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.0007294889576442974</v>
+        <v>0.0008239317724570095</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>0.0002440520644404139</v>
+        <v>0.000346051344431944</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.86706497386109e-05</v>
+        <v>6.44164840284571e-05</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0.008005707884348661</v>
+        <v>0.009019805821752099</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>0.004595647071375226</v>
+        <v>0.005193766282015367</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>0.002765923396991358</v>
+        <v>0.003156407717394398</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>0.008685852981969487</v>
+        <v>0.009773328879108235</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0.0001947082044169423</v>
+        <v>0.0003145921313017672</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.007405579857036168</v>
+        <v>0.008318714786279588</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>0.008328443401258935</v>
+        <v>0.009362861050647835</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>0.002679238237490665</v>
+        <v>0.003018586402728862</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.0106142643764003</v>
+        <v>0.0119724776826844</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>4.400938866958284e-05</v>
+        <v>7.490288840518268e-05</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.0004547636829190227</v>
+        <v>0.0005123357566914496</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.001692361037021231</v>
+        <v>0.001916015885404573</v>
       </c>
       <c r="Y17" s="2" t="n">
-        <v>0.0001960418222554145</v>
+        <v>0.0002277047807517554</v>
       </c>
       <c r="Z17" s="2" t="n">
-        <v>4.000853515416622e-05</v>
+        <v>4.793784857931691e-05</v>
       </c>
       <c r="AA17" s="2" t="n">
-        <v>0.0002307158860556919</v>
+        <v>0.0002591639938819321</v>
       </c>
       <c r="AB17" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="AC17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD17" s="2" t="n">
-        <v>2.267150325402753e-05</v>
+        <v>4.793784857931691e-05</v>
       </c>
       <c r="AE17" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>8.089511947759729e-05</v>
       </c>
       <c r="AF17" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="AG17" s="2" t="n">
-        <v>0</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="AH17" s="2" t="n">
-        <v>0</v>
+        <v>4.494173304310961e-05</v>
       </c>
       <c r="AI17" s="2" t="n">
         <v>0</v>
@@ -6259,82 +6259,82 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.01436306412034567</v>
+        <v>0.01500304854755809</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.000688146804651659</v>
+        <v>0.0008913443720216739</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>0.0002427184466019417</v>
+        <v>0.0002891251492440052</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>8.988346608621922e-06</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>8.935239517763789e-05</v>
+        <v>0.0001048640437672557</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0.0007801664355062413</v>
+        <v>0.0009977064735570333</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>3.295727089828038e-05</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0.0002200469433479142</v>
+        <v>0.000341557171127633</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>8.688735055001191e-05</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>3.145921313017673e-05</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>2.533873893097194e-05</v>
+        <v>4.643979081121326e-05</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0.0001080230449162488</v>
+        <v>0.0001872572210129567</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>2.696503982586576e-05</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0.001230929264909847</v>
+        <v>0.001540003385610556</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>2.133788541555532e-05</v>
+        <v>2.696503982586576e-05</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>0.0001040221914008322</v>
+        <v>0.0001273349102888106</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>0.001518990718019844</v>
+        <v>0.001725762548855409</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>5.867918489277713e-05</v>
+        <v>0.000116848505912085</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>0.0004467619758881895</v>
+        <v>0.0005333085654449007</v>
       </c>
       <c r="W18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>4.044755973879865e-05</v>
       </c>
       <c r="Y18" s="2" t="n">
-        <v>0</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="Z18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AA18" s="2" t="n">
-        <v>9.335324869305452e-06</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="AB18" s="2" t="n">
         <v>0</v>
@@ -6343,19 +6343,19 @@
         <v>0</v>
       </c>
       <c r="AD18" s="2" t="n">
-        <v>8.935239517763789e-05</v>
+        <v>0.0001363232568974325</v>
       </c>
       <c r="AE18" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>7.789900394138999e-05</v>
       </c>
       <c r="AF18" s="2" t="n">
-        <v>8.668515950069348e-05</v>
+        <v>9.737375492673749e-05</v>
       </c>
       <c r="AG18" s="2" t="n">
-        <v>0</v>
+        <v>1.647863544914019e-05</v>
       </c>
       <c r="AH18" s="2" t="n">
-        <v>2.667235676944415e-05</v>
+        <v>0.0001048640437672557</v>
       </c>
       <c r="AI18" s="2" t="n">
         <v>0</v>
@@ -6368,106 +6368,106 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.003904833031046623</v>
+        <v>0.00403876374280745</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.002195134962125253</v>
+        <v>0.002510744819341723</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.001020217646431239</v>
+        <v>0.001146014192599295</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>0.0006081297343433266</v>
+        <v>0.000692102688863888</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0.001025552117785127</v>
+        <v>0.001153504481439813</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>0.0009015256588072122</v>
+        <v>0.00101268705123807</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0.005847914221700629</v>
+        <v>0.006606434757337113</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.0003400725488104129</v>
+        <v>0.000385000846402639</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>0.000886855862584018</v>
+        <v>0.001023173455614796</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>1.94747509853475e-05</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0.001305611863864291</v>
+        <v>0.001474088843813995</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>1.498057768103654e-05</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>2.933959244638856e-05</v>
+        <v>5.093396411552422e-05</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>0.00010268857356236</v>
+        <v>0.0001228407369844996</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0.005821241864931185</v>
+        <v>0.006606434757337113</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.005826576336285074</v>
+        <v>0.006545014388844863</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>0.001114904512962765</v>
+        <v>0.001258368525207069</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>0.0002240477968633308</v>
+        <v>0.0002531717628095174</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.002748586365091219</v>
+        <v>0.003102477637742667</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>0.000656139976528326</v>
+        <v>0.0007460327685156195</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.0001266936946548597</v>
+        <v>0.0001423154879698471</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>0.0001600341406166649</v>
+        <v>0.0001887552787810604</v>
       </c>
       <c r="Y19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Z19" s="2" t="n">
-        <v>3.067321028486077e-05</v>
+        <v>3.445532866638403e-05</v>
       </c>
       <c r="AA19" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="AB19" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="AC19" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="AD19" s="2" t="n">
-        <v>0.0002413848287634695</v>
+        <v>0.0002786387448672796</v>
       </c>
       <c r="AE19" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-05</v>
       </c>
       <c r="AF19" s="2" t="n">
-        <v>0.001113570895124293</v>
+        <v>0.001250878236366551</v>
       </c>
       <c r="AG19" s="2" t="n">
-        <v>4.667662434652726e-05</v>
+        <v>6.142036849224979e-05</v>
       </c>
       <c r="AH19" s="2" t="n">
-        <v>0.00010268857356236</v>
+        <v>0.0001453116035060544</v>
       </c>
       <c r="AI19" s="2" t="n">
-        <v>2.533873893097194e-05</v>
+        <v>2.846309759396942e-05</v>
       </c>
     </row>
     <row r="20">
@@ -6477,82 +6477,82 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.01445108289768484</v>
+        <v>0.01508094755149948</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.002877947295423024</v>
+        <v>0.003381116382609946</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.0001493651979088872</v>
+        <v>0.0001677824700276092</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>0.00225381414701803</v>
+        <v>0.002554188494616729</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.800597460791635e-05</v>
+        <v>4.643979081121326e-05</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>0.0003814147018030513</v>
+        <v>0.0004389309260543705</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.004548970447028699</v>
+        <v>0.005244700246130891</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>9.335324869305452e-05</v>
+        <v>0.0001048640437672557</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>2.667235676944415e-05</v>
+        <v>3.595338643448769e-05</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0.004990397951563</v>
+        <v>0.005701607865402506</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.0005241118105195775</v>
+        <v>0.0006501570713569857</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>0.0003827483196415235</v>
+        <v>0.000453911503735407</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>0.000546783313773605</v>
+        <v>0.0006501570713569857</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0.0001573669049397205</v>
+        <v>0.0002666542827224503</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>0.0007148191614211032</v>
+        <v>0.0008224337146889058</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0.004853035314200363</v>
+        <v>0.00558026518618611</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>9.335324869305452e-05</v>
+        <v>0.0001078601593034631</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>0.0003200682812333298</v>
+        <v>0.0003715183264897061</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>0.0007308225754827696</v>
+        <v>0.0008419084656742533</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.001556332017497066</v>
+        <v>0.001794673206188177</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>0.001058892563746933</v>
+        <v>0.001222415138772581</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>2.667235676944415e-05</v>
+        <v>3.145921313017673e-05</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>2.400512109249973e-05</v>
+        <v>6.142036849224979e-05</v>
       </c>
       <c r="Y20" s="2" t="n">
-        <v>0</v>
+        <v>5.992231072414614e-06</v>
       </c>
       <c r="Z20" s="2" t="n">
-        <v>6.668089192361037e-06</v>
+        <v>1.048640437672558e-05</v>
       </c>
       <c r="AA20" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="AB20" s="2" t="n">
         <v>0</v>
@@ -6561,19 +6561,19 @@
         <v>0</v>
       </c>
       <c r="AD20" s="2" t="n">
-        <v>0.0005681211991891604</v>
+        <v>0.0006681337645742296</v>
       </c>
       <c r="AE20" s="2" t="n">
-        <v>0.000642803798143604</v>
+        <v>0.0008119473103121803</v>
       </c>
       <c r="AF20" s="2" t="n">
-        <v>4.934386002347167e-05</v>
+        <v>5.542813741983518e-05</v>
       </c>
       <c r="AG20" s="2" t="n">
-        <v>0.0001880401152245813</v>
+        <v>0.00023369701182417</v>
       </c>
       <c r="AH20" s="2" t="n">
-        <v>0.0004640990077883282</v>
+        <v>0.0005767522407199066</v>
       </c>
       <c r="AI20" s="2" t="n">
         <v>0</v>
@@ -6586,106 +6586,106 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.007248212952096447</v>
+        <v>0.00717120253591219</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.003658113730929265</v>
+        <v>0.004182577288545401</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>0.0003614104342259682</v>
+        <v>0.0004269464639095413</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.200256054624987e-05</v>
+        <v>2.996115536207307e-05</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>9.468686653152673e-05</v>
+        <v>0.000112354332607774</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.005094420142963832</v>
+        <v>0.005819954429082694</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>8.001707030833245e-06</v>
+        <v>1.348251991293288e-05</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>0.003568761335751627</v>
+        <v>0.004073219071473834</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.0001720367011629148</v>
+        <v>0.0002621601094181394</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>0.0007174863970980476</v>
+        <v>0.0008733676788044301</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>0.0002480529179558306</v>
+        <v>0.0002876270914759015</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>6.668089192361037e-06</v>
+        <v>5.992231072414615e-05</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>0.0007734983463138803</v>
+        <v>0.0008808579676449483</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>0.005347807532273552</v>
+        <v>0.006215441679862059</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>7.20153632774992e-05</v>
+        <v>8.239317724570095e-05</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>0.0005934599381201323</v>
+        <v>0.0006696318223423332</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>0.009117945161634482</v>
+        <v>0.01025570348043761</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.0001587005227781927</v>
+        <v>0.0002097280875345115</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>0.001268270564387069</v>
+        <v>0.001478583017118306</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>1.333617838472207e-05</v>
+        <v>1.498057768103654e-05</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>2.000426757708311e-05</v>
+        <v>4.643979081121326e-05</v>
       </c>
       <c r="Y21" s="2" t="n">
-        <v>0</v>
+        <v>7.490288840518268e-06</v>
       </c>
       <c r="Z21" s="2" t="n">
-        <v>0.002417849141150112</v>
+        <v>0.002717476791340028</v>
       </c>
       <c r="AA21" s="2" t="n">
-        <v>5.201109570041609e-05</v>
+        <v>5.992231072414615e-05</v>
       </c>
       <c r="AB21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AC21" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="AD21" s="2" t="n">
-        <v>0.0004827696575269391</v>
+        <v>0.0005482891431259372</v>
       </c>
       <c r="AE21" s="2" t="n">
-        <v>0.0001013549557238878</v>
+        <v>0.0001632882967232982</v>
       </c>
       <c r="AF21" s="2" t="n">
-        <v>0.002273818414595114</v>
+        <v>0.002554188494616729</v>
       </c>
       <c r="AG21" s="2" t="n">
-        <v>0.0006921476581670757</v>
+        <v>0.0007969667326311438</v>
       </c>
       <c r="AH21" s="2" t="n">
-        <v>0.001022884882108183</v>
+        <v>0.001202940387787234</v>
       </c>
       <c r="AI21" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
     </row>
     <row r="22">
@@ -6695,103 +6695,103 @@
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.002991304811693161</v>
+        <v>0.003126446562032325</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.0002147124719940254</v>
+        <v>0.000272646513794865</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.0007668302571215193</v>
+        <v>0.0008628812744277044</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.0007188200149365198</v>
+        <v>0.0008119473103121803</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0.0005267790461965219</v>
+        <v>0.0005917328184009431</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>0.001548330310466233</v>
+        <v>0.001740743126536445</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>8.535154166222128e-05</v>
+        <v>0.0001318290835931215</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.0001693694654859704</v>
+        <v>0.0001917513943172677</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.000360076816387496</v>
+        <v>0.0004059736551560901</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.600341406166649e-05</v>
+        <v>4.19456175069023e-05</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>0.001222927557879014</v>
+        <v>0.001376715088887258</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>0.001097567481062627</v>
+        <v>0.001234399600917411</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0.001402965966072762</v>
+        <v>0.00159093734972608</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>0.001799050464099008</v>
+        <v>0.002022377986939932</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>9.468686653152673e-05</v>
+        <v>0.0001258368525207069</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0006308012375973541</v>
+        <v>0.0007085813243130282</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>0.002177797930225115</v>
+        <v>0.00244782639308137</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>0.0008561826522991571</v>
+        <v>0.0009677453181949603</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.001204256908140403</v>
+        <v>0.001361734511206221</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>7.490288840518268e-06</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>6.401365624666596e-05</v>
+        <v>7.340483063707902e-05</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.000116024751947082</v>
+        <v>0.0001393193724336398</v>
       </c>
       <c r="Y22" s="2" t="n">
-        <v>0.0001080230449162488</v>
+        <v>0.0001228407369844996</v>
       </c>
       <c r="Z22" s="2" t="n">
-        <v>0.0005747892883815214</v>
+        <v>0.0006471609558207784</v>
       </c>
       <c r="AA22" s="2" t="n">
-        <v>0.0001920409687399979</v>
+        <v>0.0002157203186069261</v>
       </c>
       <c r="AB22" s="2" t="n">
-        <v>8.401792382374907e-05</v>
+        <v>9.437763939053018e-05</v>
       </c>
       <c r="AC22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD22" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>1.797669321724384e-05</v>
       </c>
       <c r="AE22" s="2" t="n">
-        <v>0</v>
+        <v>1.94747509853475e-05</v>
       </c>
       <c r="AF22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG22" s="2" t="n">
-        <v>0</v>
+        <v>7.490288840518268e-06</v>
       </c>
       <c r="AH22" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>1.348251991293288e-05</v>
       </c>
       <c r="AI22" s="2" t="n">
         <v>0</v>
@@ -6804,73 +6804,73 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.0008775205377147125</v>
+        <v>0.0008973366030940885</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.0001653686119705537</v>
+        <v>0.0001932494520853713</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>6.668089192361037e-06</v>
+        <v>7.490288840518268e-06</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>2.267150325402753e-05</v>
+        <v>3.595338643448769e-05</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>0.0001600341406166649</v>
+        <v>0.0001872572210129567</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0</v>
+        <v>7.490288840518268e-06</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>7.490288840518268e-06</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>2.667235676944415e-05</v>
+        <v>3.595338643448769e-05</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>1.048640437672558e-05</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.066894270777766e-05</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>0.0001533660514243039</v>
+        <v>0.0001842611054767494</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>2.000426757708311e-05</v>
+        <v>2.24708665215548e-05</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>9.468686653152673e-05</v>
+        <v>0.0001078601593034631</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>5.992231072414614e-06</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>8.988346608621922e-06</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>1.466979622319428e-05</v>
+        <v>1.647863544914019e-05</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0</v>
+        <v>8.988346608621922e-06</v>
       </c>
       <c r="Y23" s="2" t="n">
         <v>0</v>
@@ -6888,19 +6888,19 @@
         <v>0</v>
       </c>
       <c r="AD23" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="AE23" s="2" t="n">
-        <v>9.335324869305452e-06</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="AF23" s="2" t="n">
-        <v>1.066894270777766e-05</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="AG23" s="2" t="n">
-        <v>0</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="AH23" s="2" t="n">
-        <v>0</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="AI23" s="2" t="n">
         <v>0</v>
@@ -6913,67 +6913,67 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.001164248372986237</v>
+        <v>0.001204438445555338</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.0008975248052917956</v>
+        <v>0.001020177340078588</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>3.067321028486077e-05</v>
+        <v>3.445532866638403e-05</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.333617838472207e-05</v>
+        <v>1.797669321724384e-05</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>5.33447135388883e-05</v>
+        <v>5.992231072414615e-05</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.0002973967779793022</v>
+        <v>0.000346051344431944</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="J24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0.001796383228422063</v>
+        <v>0.002028370218012347</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>1.498057768103654e-05</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1.048640437672558e-05</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.600341406166649e-05</v>
+        <v>1.797669321724384e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0.0003614104342259682</v>
+        <v>0.0004104678284604011</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>0.0001066894270777766</v>
+        <v>0.0001198446214482923</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>0.0002227141790248586</v>
+        <v>0.0002531717628095174</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>8.001707030833245e-06</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>0.0003880827909954123</v>
+        <v>0.0004404289838224741</v>
       </c>
       <c r="W24" s="2" t="n">
         <v>0</v>
@@ -6994,22 +6994,22 @@
         <v>0</v>
       </c>
       <c r="AC24" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="AD24" s="2" t="n">
-        <v>0.0009842099647924892</v>
+        <v>0.001111558863932911</v>
       </c>
       <c r="AE24" s="2" t="n">
-        <v>0</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="AF24" s="2" t="n">
-        <v>1.066894270777766e-05</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="AG24" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="AH24" s="2" t="n">
-        <v>0.0002040435292862477</v>
+        <v>0.00023369701182417</v>
       </c>
       <c r="AI24" s="2" t="n">
         <v>0</v>
@@ -7022,73 +7022,73 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.0003120665742024965</v>
+        <v>0.0003250785356784928</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.000180038408193748</v>
+        <v>0.0002022377986939932</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>4.934386002347167e-05</v>
+        <v>5.542813741983518e-05</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>0.00010268857356236</v>
+        <v>0.000116848505912085</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.0003547423450336072</v>
+        <v>0.0003999814240836755</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>9.335324869305452e-06</v>
+        <v>1.048640437672558e-05</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0.0005934599381201323</v>
+        <v>0.0006711298801104368</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>3.734129947722181e-05</v>
+        <v>4.344367527500595e-05</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>5.867918489277713e-05</v>
+        <v>6.741259956466441e-05</v>
       </c>
       <c r="N25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>1.86706497386109e-05</v>
+        <v>2.097280875345115e-05</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>0.0003120665742024965</v>
+        <v>0.0003520435755043586</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>7.734983463138803e-05</v>
+        <v>8.688735055001191e-05</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>2.133788541555532e-05</v>
+        <v>2.846309759396942e-05</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>0.0001493651979088872</v>
+        <v>0.0001677824700276092</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>8.268430598527685e-05</v>
+        <v>9.437763939053018e-05</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>3.467406380027739e-05</v>
+        <v>4.044755973879865e-05</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>1.066894270777766e-05</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="W25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="Y25" s="2" t="n">
         <v>0</v>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="AB25" s="2" t="n">
         <v>0</v>
@@ -7106,19 +7106,19 @@
         <v>0</v>
       </c>
       <c r="AD25" s="2" t="n">
-        <v>0.0001813720260322202</v>
+        <v>0.0002037358564620969</v>
       </c>
       <c r="AE25" s="2" t="n">
-        <v>4.000853515416622e-05</v>
+        <v>4.793784857931691e-05</v>
       </c>
       <c r="AF25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG25" s="2" t="n">
-        <v>1.066894270777766e-05</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="AH25" s="2" t="n">
-        <v>6.134642056972154e-05</v>
+        <v>7.040871510087171e-05</v>
       </c>
       <c r="AI25" s="2" t="n">
         <v>0</v>
@@ -7131,103 +7131,103 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.004526298943774672</v>
+        <v>0.004726372258367027</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.000938866958284434</v>
+        <v>0.001089087997411356</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>2.400512109249973e-05</v>
+        <v>3.145921313017673e-05</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.933959244638856e-05</v>
+        <v>3.595338643448769e-05</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>9.468686653152673e-05</v>
+        <v>0.0001078601593034631</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.001193587965432626</v>
+        <v>0.001394691782104502</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>5.992231072414614e-06</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>1.066894270777766e-05</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0.00142563746932679</v>
+        <v>0.001625392678392464</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>9.868772004694335e-05</v>
+        <v>0.0001303310258250179</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>0</v>
+        <v>8.988346608621922e-06</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>0.0001426971087165262</v>
+        <v>0.0001692805277957128</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>6.001280273124933e-05</v>
+        <v>0.0001063621015353594</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>0.0001707030833244426</v>
+        <v>0.0002022377986939932</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0.001544329456950816</v>
+        <v>0.001776696512970933</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>2.267150325402753e-05</v>
+        <v>2.546698205776211e-05</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>0.0001573669049397205</v>
+        <v>0.0001812649899405421</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>0.0002053771471247199</v>
+        <v>0.0002366931273603773</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>8.535154166222128e-05</v>
+        <v>0.0001108562748396704</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>0.000829510295529713</v>
+        <v>0.0009437763939053017</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="Y26" s="2" t="n">
-        <v>0</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="Z26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AA26" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>5.992231072414614e-06</v>
       </c>
       <c r="AB26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="AD26" s="2" t="n">
-        <v>0.0001707030833244426</v>
+        <v>0.0001992416831577859</v>
       </c>
       <c r="AE26" s="2" t="n">
-        <v>2.267150325402753e-05</v>
+        <v>6.291842626035345e-05</v>
       </c>
       <c r="AF26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG26" s="2" t="n">
-        <v>0.0002307158860556919</v>
+        <v>0.0002606620516500357</v>
       </c>
       <c r="AH26" s="2" t="n">
-        <v>6.401365624666596e-05</v>
+        <v>8.538929278190826e-05</v>
       </c>
       <c r="AI26" s="2" t="n">
         <v>0</v>
@@ -7240,103 +7240,103 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.0009495359009922117</v>
+        <v>0.0009707414337311675</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.0004734343326576337</v>
+        <v>0.0005497872008940409</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>0.0003774138482876347</v>
+        <v>0.0004254484061414376</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>6.268003840819374e-05</v>
+        <v>7.190677286897537e-05</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.0009095273658380454</v>
+        <v>0.001026169571151003</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>0.0006147978235356876</v>
+        <v>0.0006950988044000953</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0.00010268857356236</v>
+        <v>0.0001183465636801886</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2.800597460791635e-05</v>
+        <v>3.595338643448769e-05</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.73370319001387e-05</v>
+        <v>2.24708665215548e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>0.0006814787154592979</v>
+        <v>0.0007759939238776926</v>
       </c>
       <c r="R27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>0.0001587005227781927</v>
+        <v>0.0001782688744043348</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>3.867491731569402e-05</v>
+        <v>4.494173304310961e-05</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>1.048640437672558e-05</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>0.0003334044596180519</v>
+        <v>0.0003775105575621207</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="Y27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Z27" s="2" t="n">
-        <v>0.000116024751947082</v>
+        <v>0.0001303310258250179</v>
       </c>
       <c r="AA27" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>8.988346608621922e-06</v>
       </c>
       <c r="AB27" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AC27" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="AD27" s="2" t="n">
-        <v>0.0005321135175504108</v>
+        <v>0.0006007211650095651</v>
       </c>
       <c r="AE27" s="2" t="n">
-        <v>0.0004147551477648565</v>
+        <v>0.0004718881969526509</v>
       </c>
       <c r="AF27" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="AG27" s="2" t="n">
-        <v>1.466979622319428e-05</v>
+        <v>1.94747509853475e-05</v>
       </c>
       <c r="AH27" s="2" t="n">
-        <v>2.267150325402753e-05</v>
+        <v>3.145921313017673e-05</v>
       </c>
       <c r="AI27" s="2" t="n">
         <v>0</v>
@@ -7349,25 +7349,25 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>7.068174543902699e-05</v>
+        <v>7.190677286897537e-05</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.0002200469433479142</v>
+        <v>0.0002471795317371028</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.0001053558092393044</v>
+        <v>0.0001183465636801886</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.0003960844980262456</v>
+        <v>0.0004464212148948888</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>0</v>
@@ -7376,40 +7376,40 @@
         <v>0</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>9.06860130161101e-05</v>
+        <v>0.0001018679282310484</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="M28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="O28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>0.0001213592233009709</v>
+        <v>0.0001378213146655361</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0.0001440307265549984</v>
+        <v>0.0001632882967232982</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>6.668089192361037e-06</v>
+        <v>7.490288840518268e-06</v>
       </c>
       <c r="T28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>0.0003093993385255521</v>
+        <v>0.0003475494022000476</v>
       </c>
       <c r="W28" s="2" t="n">
         <v>0</v>
@@ -7433,19 +7433,19 @@
         <v>0</v>
       </c>
       <c r="AD28" s="2" t="n">
-        <v>9.335324869305452e-06</v>
+        <v>1.048640437672558e-05</v>
       </c>
       <c r="AE28" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>8.988346608621922e-06</v>
       </c>
       <c r="AF28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG28" s="2" t="n">
-        <v>0.0003880827909954123</v>
+        <v>0.0004359348105181632</v>
       </c>
       <c r="AH28" s="2" t="n">
-        <v>0.000282726981756108</v>
+        <v>0.0003175882468379746</v>
       </c>
       <c r="AI28" s="2" t="n">
         <v>0</v>
@@ -7458,13 +7458,13 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.333617838472207e-05</v>
+        <v>1.498057768103654e-05</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.000173370319001387</v>
+        <v>0.000194747509853475</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>0</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>8.001707030833245e-06</v>
+        <v>8.988346608621922e-06</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>0</v>
@@ -7482,7 +7482,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>1.066894270777766e-05</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="K29" s="2" t="n">
         <v>0</v>
@@ -7494,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>2.267150325402753e-05</v>
+        <v>2.546698205776211e-05</v>
       </c>
       <c r="O29" s="2" t="n">
         <v>0</v>
@@ -7509,13 +7509,13 @@
         <v>0</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>4.000853515416622e-05</v>
+        <v>4.494173304310961e-05</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="V29" s="2" t="n">
         <v>0</v>
@@ -7524,13 +7524,13 @@
         <v>0</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="Y29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Z29" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="AA29" s="2" t="n">
         <v>0</v>
@@ -7567,22 +7567,22 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>8.001707030833245e-06</v>
+        <v>7.490288840518268e-06</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.002484530033073723</v>
+        <v>0.002790881621977107</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.001612343966712899</v>
+        <v>0.001811151841637317</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>0.0004801024218499947</v>
+        <v>0.0005393007965173153</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>0</v>
@@ -7591,52 +7591,52 @@
         <v>0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.0005614531099967993</v>
+        <v>0.0006306823203716382</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="L30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>0.0006414701803051317</v>
+        <v>0.0007205657864578574</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0.001258935239517764</v>
+        <v>0.001414166533089849</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>0.003085991678224688</v>
+        <v>0.003466505675391854</v>
       </c>
       <c r="Q30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0002707244212098581</v>
+        <v>0.0003041057269250417</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>0.00150432092179665</v>
+        <v>0.001689809162420921</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>0.0004854368932038835</v>
+        <v>0.00054529302758973</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.001146911341086098</v>
+        <v>0.001288329680569142</v>
       </c>
       <c r="V30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>2.400512109249973e-05</v>
+        <v>2.696503982586576e-05</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="Y30" s="2" t="n">
-        <v>0.0001293609303318041</v>
+        <v>0.0001453116035060544</v>
       </c>
       <c r="Z30" s="2" t="n">
         <v>0</v>
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
       <c r="AH30" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="AI30" s="2" t="n">
         <v>0</v>
@@ -7676,91 +7676,91 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>6.934812760055478e-05</v>
+        <v>4.793784857931691e-05</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>2.267150325402753e-05</v>
+        <v>2.546698205776211e-05</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.0001400298730395818</v>
+        <v>0.0001572960656508836</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>0.0003120665742024965</v>
+        <v>0.0003505455177362549</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>1.048640437672558e-05</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>1.066894270777766e-05</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>9.735410220847114e-05</v>
+        <v>0.0001093582170715667</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>5.992231072414614e-06</v>
       </c>
       <c r="L31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>8.988346608621922e-06</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>0.003938173477008428</v>
+        <v>0.004423764589210089</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>6.268003840819374e-05</v>
+        <v>7.190677286897537e-05</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>0.0008761869198762402</v>
+        <v>0.0009842239536441003</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>5.992231072414614e-06</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>3.334044596180519e-05</v>
+        <v>3.745144420259134e-05</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>0.000430758561826523</v>
+        <v>0.0004838726590974801</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>0.00235650272058039</v>
+        <v>0.002647068076239156</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.004340926064227035</v>
+        <v>0.0048791741507136</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>5.992231072414614e-06</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="Y31" s="2" t="n">
-        <v>0</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="Z31" s="2" t="n">
-        <v>0.0001720367011629148</v>
+        <v>0.0001932494520853713</v>
       </c>
       <c r="AA31" s="2" t="n">
-        <v>0.0008281766776912408</v>
+        <v>0.0009302938739923689</v>
       </c>
       <c r="AB31" s="2" t="n">
-        <v>3.334044596180519e-05</v>
+        <v>3.745144420259134e-05</v>
       </c>
       <c r="AC31" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AD31" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="AE31" s="2" t="n">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="AH31" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="AI31" s="2" t="n">
         <v>0</v>
@@ -7785,79 +7785,79 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.002607222874213166</v>
+        <v>0.002741445715629686</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>1.600341406166649e-05</v>
+        <v>3.145921313017673e-05</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>9.335324869305452e-06</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>5.992231072414614e-06</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>8.001707030833245e-06</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>2.846309759396942e-05</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>7.490288840518268e-06</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>6.668089192361037e-06</v>
+        <v>3.745144420259134e-05</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0</v>
+        <v>1.048640437672558e-05</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>0.001058892563746933</v>
+        <v>0.001195450098946716</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.066894270777766e-05</v>
+        <v>1.498057768103654e-05</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>3.467406380027739e-05</v>
+        <v>4.793784857931691e-05</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0.0001453643443934706</v>
+        <v>0.0001842611054767494</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>1.466979622319428e-05</v>
+        <v>1.647863544914019e-05</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>4.667662434652726e-05</v>
+        <v>5.243202188362787e-05</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>2.800597460791635e-05</v>
+        <v>3.295727089828038e-05</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>4.000853515416623e-06</v>
+        <v>1.048640437672558e-05</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>1.600341406166649e-05</v>
+        <v>2.846309759396942e-05</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>1.066894270777766e-05</v>
+        <v>1.198446214482923e-05</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.333617838472207e-05</v>
+        <v>1.94747509853475e-05</v>
       </c>
       <c r="Y32" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="Z32" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="AA32" s="2" t="n">
         <v>0</v>
@@ -7869,19 +7869,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>0</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="AE32" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-05</v>
       </c>
       <c r="AF32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG32" s="2" t="n">
-        <v>1.73370319001387e-05</v>
+        <v>2.097280875345115e-05</v>
       </c>
       <c r="AH32" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-05</v>
       </c>
       <c r="AI32" s="2" t="n">
         <v>0</v>
@@ -7894,34 +7894,34 @@
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.0001213592233009709</v>
+        <v>0.0001258368525207069</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.000932198869092073</v>
+        <v>0.001048640437672557</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.267150325402753e-05</v>
+        <v>2.696503982586576e-05</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.0001333617838472207</v>
+        <v>0.000151303834578469</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>5.992231072414614e-06</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>0.0003347380774565241</v>
+        <v>0.0003775105575621207</v>
       </c>
       <c r="L33" s="2" t="n">
         <v>0</v>
@@ -7930,31 +7930,31 @@
         <v>0</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>0.0009241971620612397</v>
+        <v>0.001041150148832039</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>1.73370319001387e-05</v>
+        <v>1.94747509853475e-05</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>0.0001120238984316654</v>
+        <v>0.0001258368525207069</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0.0001693694654859704</v>
+        <v>0.000190253336549164</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>0.0001013549557238878</v>
+        <v>0.0001138523903758777</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>0.0001186919876240265</v>
+        <v>0.0001333271413612252</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>3.334044596180519e-05</v>
+        <v>3.894950197069499e-05</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>0.0008961911874533233</v>
+        <v>0.001006694820165655</v>
       </c>
       <c r="W33" s="2" t="n">
         <v>0</v>
@@ -7969,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="2" t="n">
-        <v>6.668089192361037e-06</v>
+        <v>7.490288840518268e-06</v>
       </c>
       <c r="AB33" s="2" t="n">
         <v>0</v>
@@ -7981,16 +7981,16 @@
         <v>0</v>
       </c>
       <c r="AE33" s="2" t="n">
-        <v>0.0004027525872186066</v>
+        <v>0.0004524134459673034</v>
       </c>
       <c r="AF33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG33" s="2" t="n">
-        <v>1.73370319001387e-05</v>
+        <v>1.94747509853475e-05</v>
       </c>
       <c r="AH33" s="2" t="n">
-        <v>0.0001506988157473594</v>
+        <v>0.0001692805277957128</v>
       </c>
       <c r="AI33" s="2" t="n">
         <v>0</v>
@@ -8003,73 +8003,73 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.001616344820228315</v>
+        <v>0.001628388793928671</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.001703029979729009</v>
+        <v>0.001939984809694231</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.0003147338098794409</v>
+        <v>0.0003535416332724623</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.000366744905579857</v>
+        <v>0.0004149620017647121</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>4.494173304310961e-06</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>0.0002693908033713859</v>
+        <v>0.0003085999002293527</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.0001293609303318041</v>
+        <v>0.0001707785855638165</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.0001466979622319428</v>
+        <v>0.0001677824700276092</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>0.00161901205590526</v>
+        <v>0.001832124650390768</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0</v>
+        <v>5.992231072414614e-06</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>0.001828390056545396</v>
+        <v>0.002061327488910627</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>0.0003814147018030513</v>
+        <v>0.0004419270415905778</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>0.001158913901632348</v>
+        <v>0.001303310258250179</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0.0005027739251040222</v>
+        <v>0.0005827444717923213</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001600341406166649</v>
+        <v>0.0001797669321724384</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>0.0007468259895444362</v>
+        <v>0.0008404104079061497</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>0.002816600874853302</v>
+        <v>0.00316539606400302</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.0003720793769337459</v>
+        <v>0.0004299425794457486</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>5.067747786194388e-05</v>
+        <v>6.142036849224979e-05</v>
       </c>
       <c r="W34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>0</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="Y34" s="2" t="n">
         <v>0</v>
@@ -8078,28 +8078,28 @@
         <v>0</v>
       </c>
       <c r="AA34" s="2" t="n">
-        <v>0</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="AB34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AC34" s="2" t="n">
-        <v>0.0001520324335858317</v>
+        <v>0.0001707785855638165</v>
       </c>
       <c r="AD34" s="2" t="n">
-        <v>5.33447135388883e-06</v>
+        <v>7.490288840518268e-06</v>
       </c>
       <c r="AE34" s="2" t="n">
-        <v>0.0002947295423023578</v>
+        <v>0.0003505455177362549</v>
       </c>
       <c r="AF34" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AG34" s="2" t="n">
-        <v>0</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="AH34" s="2" t="n">
-        <v>0.0001186919876240265</v>
+        <v>0.0001438135457379507</v>
       </c>
       <c r="AI34" s="2" t="n">
         <v>0</v>
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="E35" s="2" t="n">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>0</v>
@@ -8166,10 +8166,10 @@
         <v>0</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.333617838472207e-06</v>
+        <v>1.498057768103654e-06</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>2.667235676944415e-06</v>
+        <v>2.996115536207307e-06</v>
       </c>
       <c r="V35" s="2" t="n">
         <v>0</v>
@@ -8184,7 +8184,7 @@
         <v>0</v>
       </c>
       <c r="Z35" s="2" t="n">
-        <v>2.267150325402753e-05</v>
+        <v>2.546698205776211e-05</v>
       </c>
       <c r="AA35" s="2" t="n">
         <v>0</v>
